--- a/BackTest/2019-10-21 BackTest LBA.xlsx
+++ b/BackTest/2019-10-21 BackTest LBA.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-11.11111111111107</v>
+      </c>
       <c r="L12" t="n">
         <v>12.57</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-11.11111111111107</v>
+      </c>
       <c r="L13" t="n">
         <v>12.56</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>12.55</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>14.28571428571421</v>
+      </c>
       <c r="L15" t="n">
         <v>12.55</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.1</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>12.55</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-60.00000000000014</v>
+      </c>
       <c r="L17" t="n">
         <v>12.56</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-50</v>
+      </c>
       <c r="L18" t="n">
         <v>12.53</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>12.51</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L20" t="n">
         <v>12.5</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.299999999999999</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>12.48</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-50</v>
+      </c>
       <c r="L22" t="n">
         <v>12.46</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.499999999999998</v>
       </c>
       <c r="K23" t="n">
-        <v>-14.28571428571425</v>
+        <v>-20</v>
       </c>
       <c r="L23" t="n">
         <v>12.45000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>1.599999999999998</v>
       </c>
       <c r="K24" t="n">
-        <v>-6.666666666666651</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>12.45000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>1.699999999999998</v>
       </c>
       <c r="K25" t="n">
-        <v>-6.666666666666651</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>12.44000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>-12.50000000000007</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L26" t="n">
         <v>12.42000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>2.1</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L27" t="n">
         <v>12.41000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>2.1</v>
       </c>
       <c r="K28" t="n">
-        <v>-28.57142857142859</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L28" t="n">
         <v>12.40000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>2.1</v>
       </c>
       <c r="K29" t="n">
-        <v>-23.07692307692301</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L29" t="n">
         <v>12.39000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>2.1</v>
       </c>
       <c r="K30" t="n">
-        <v>-16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>12.38000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>2.199999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>-7.692307692307672</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L31" t="n">
         <v>12.39000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>-14.28571428571425</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L32" t="n">
         <v>12.39000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>-14.28571428571425</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L33" t="n">
         <v>12.38000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>2.5</v>
       </c>
       <c r="K34" t="n">
-        <v>-20.00000000000005</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L34" t="n">
         <v>12.35</v>
@@ -2013,7 +2035,7 @@
         <v>2.5</v>
       </c>
       <c r="K35" t="n">
-        <v>-20.00000000000005</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>12.33</v>
@@ -2064,7 +2086,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>-6.666666666666635</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L36" t="n">
         <v>12.34000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>-14.28571428571421</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L37" t="n">
         <v>12.33</v>
@@ -2166,7 +2188,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>-14.28571428571421</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L38" t="n">
         <v>12.32</v>
@@ -2217,7 +2239,7 @@
         <v>2.700000000000003</v>
       </c>
       <c r="K39" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>12.3</v>
@@ -2268,7 +2290,7 @@
         <v>2.800000000000004</v>
       </c>
       <c r="K40" t="n">
-        <v>-12.49999999999992</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L40" t="n">
         <v>12.29</v>
@@ -2319,7 +2341,7 @@
         <v>2.800000000000004</v>
       </c>
       <c r="K41" t="n">
-        <v>-6.666666666666619</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>12.27</v>
@@ -2421,7 +2443,7 @@
         <v>2.800000000000004</v>
       </c>
       <c r="K43" t="n">
-        <v>-7.692307692307629</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>12.27000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>2.800000000000004</v>
       </c>
       <c r="K44" t="n">
-        <v>-16.66666666666652</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L44" t="n">
         <v>12.28</v>
@@ -2523,7 +2545,7 @@
         <v>2.800000000000004</v>
       </c>
       <c r="K45" t="n">
-        <v>-9.090909090909003</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>12.29</v>
@@ -2574,7 +2596,7 @@
         <v>2.800000000000004</v>
       </c>
       <c r="K46" t="n">
-        <v>11.1111111111112</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>12.29</v>
@@ -2625,7 +2647,7 @@
         <v>2.900000000000004</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L47" t="n">
         <v>12.3</v>
@@ -2676,7 +2698,7 @@
         <v>2.900000000000004</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" t="n">
         <v>12.31</v>
@@ -2727,7 +2749,7 @@
         <v>2.900000000000004</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L49" t="n">
         <v>12.33</v>
@@ -2778,7 +2800,7 @@
         <v>2.900000000000004</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L50" t="n">
         <v>12.34</v>
@@ -2829,7 +2851,7 @@
         <v>2.900000000000004</v>
       </c>
       <c r="K51" t="n">
-        <v>-14.28571428571414</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
         <v>12.35</v>
@@ -2880,7 +2902,7 @@
         <v>2.900000000000004</v>
       </c>
       <c r="K52" t="n">
-        <v>19.99999999999972</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
         <v>12.36</v>
@@ -2931,7 +2953,7 @@
         <v>2.900000000000004</v>
       </c>
       <c r="K53" t="n">
-        <v>19.99999999999972</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
         <v>12.37</v>
@@ -2982,7 +3004,7 @@
         <v>2.900000000000004</v>
       </c>
       <c r="K54" t="n">
-        <v>49.99999999999978</v>
+        <v>100</v>
       </c>
       <c r="L54" t="n">
         <v>12.38</v>
@@ -3033,7 +3055,7 @@
         <v>2.900000000000004</v>
       </c>
       <c r="K55" t="n">
-        <v>49.99999999999978</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
         <v>12.39</v>
@@ -3084,7 +3106,7 @@
         <v>3.000000000000004</v>
       </c>
       <c r="K56" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L56" t="n">
         <v>12.41</v>
@@ -3135,7 +3157,7 @@
         <v>3.000000000000004</v>
       </c>
       <c r="K57" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L57" t="n">
         <v>12.42</v>
@@ -3186,7 +3208,7 @@
         <v>3.100000000000003</v>
       </c>
       <c r="K58" t="n">
-        <v>19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>12.42</v>
@@ -3237,7 +3259,7 @@
         <v>3.200000000000003</v>
       </c>
       <c r="K59" t="n">
-        <v>60.00000000000014</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L59" t="n">
         <v>12.43</v>
@@ -3288,7 +3310,7 @@
         <v>3.300000000000002</v>
       </c>
       <c r="K60" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>12.43</v>
@@ -3339,7 +3361,7 @@
         <v>3.300000000000002</v>
       </c>
       <c r="K61" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>12.43</v>
@@ -3390,7 +3412,7 @@
         <v>3.300000000000002</v>
       </c>
       <c r="K62" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>12.43</v>
@@ -3441,7 +3463,7 @@
         <v>3.500000000000002</v>
       </c>
       <c r="K63" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L63" t="n">
         <v>12.44999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>3.600000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L64" t="n">
         <v>12.45999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>3.600000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>12.46999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>3.700000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L66" t="n">
         <v>12.47999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>3.700000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>12.48999999999999</v>
@@ -3696,7 +3718,7 @@
         <v>3.700000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L68" t="n">
         <v>12.50999999999999</v>
@@ -3747,7 +3769,7 @@
         <v>3.700000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L69" t="n">
         <v>12.51999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>3.700000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L70" t="n">
         <v>12.53999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>3.800000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L71" t="n">
         <v>12.54999999999999</v>
@@ -3900,7 +3922,7 @@
         <v>3.800000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L72" t="n">
         <v>12.55999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>3.9</v>
       </c>
       <c r="K73" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>12.55999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>4.1</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L74" t="n">
         <v>12.54999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>4.199999999999999</v>
       </c>
       <c r="K75" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L75" t="n">
         <v>12.54999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>4.299999999999999</v>
       </c>
       <c r="K76" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L76" t="n">
         <v>12.52999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>4.499999999999998</v>
       </c>
       <c r="K77" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>12.52999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>4.499999999999998</v>
       </c>
       <c r="K78" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>12.52999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>4.699999999999998</v>
       </c>
       <c r="K79" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L79" t="n">
         <v>12.50999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>4.799999999999997</v>
       </c>
       <c r="K80" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>12.49999999999999</v>
@@ -4359,7 +4381,7 @@
         <v>4.799999999999997</v>
       </c>
       <c r="K81" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>12.49999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>4.799999999999997</v>
       </c>
       <c r="K82" t="n">
-        <v>6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L82" t="n">
         <v>12.49999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>4.799999999999997</v>
       </c>
       <c r="K83" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L83" t="n">
         <v>12.48999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>4.899999999999997</v>
       </c>
       <c r="K84" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L84" t="n">
         <v>12.48999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>4.899999999999997</v>
       </c>
       <c r="K85" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>12.47999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>4.999999999999996</v>
       </c>
       <c r="K86" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L86" t="n">
         <v>12.48999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>4.999999999999996</v>
       </c>
       <c r="K87" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L87" t="n">
         <v>12.47999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>4.999999999999996</v>
       </c>
       <c r="K88" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L88" t="n">
         <v>12.46999999999999</v>
@@ -4767,7 +4789,7 @@
         <v>5.099999999999996</v>
       </c>
       <c r="K89" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>12.46999999999999</v>
@@ -4818,7 +4840,7 @@
         <v>5.099999999999996</v>
       </c>
       <c r="K90" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>12.45999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>5.099999999999996</v>
       </c>
       <c r="K91" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L91" t="n">
         <v>12.44999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>5.099999999999996</v>
       </c>
       <c r="K92" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>12.43999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>5.099999999999996</v>
       </c>
       <c r="K93" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>12.43</v>
@@ -5073,7 +5095,7 @@
         <v>5.099999999999996</v>
       </c>
       <c r="K95" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L95" t="n">
         <v>12.43</v>
@@ -5124,7 +5146,7 @@
         <v>5.099999999999996</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L96" t="n">
         <v>12.42</v>
@@ -5175,7 +5197,7 @@
         <v>5.099999999999996</v>
       </c>
       <c r="K97" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L97" t="n">
         <v>12.41</v>
@@ -5226,7 +5248,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K98" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L98" t="n">
         <v>12.39</v>
@@ -5277,7 +5299,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K99" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L99" t="n">
         <v>12.38</v>
@@ -5328,7 +5350,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K100" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L100" t="n">
         <v>12.37</v>
@@ -5379,7 +5401,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K101" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L101" t="n">
         <v>12.36</v>
@@ -5430,7 +5452,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K102" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L102" t="n">
         <v>12.35</v>
@@ -5481,7 +5503,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K103" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L103" t="n">
         <v>12.34</v>
@@ -5532,7 +5554,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K104" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L104" t="n">
         <v>12.33</v>
@@ -5583,7 +5605,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K105" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L105" t="n">
         <v>12.32</v>
@@ -5684,9 +5706,7 @@
       <c r="J107" t="n">
         <v>5.199999999999996</v>
       </c>
-      <c r="K107" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>12.3</v>
       </c>
@@ -5735,9 +5755,7 @@
       <c r="J108" t="n">
         <v>5.199999999999996</v>
       </c>
-      <c r="K108" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>12.3</v>
       </c>
@@ -5786,9 +5804,7 @@
       <c r="J109" t="n">
         <v>5.199999999999996</v>
       </c>
-      <c r="K109" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>12.3</v>
       </c>
@@ -6093,7 +6109,7 @@
         <v>5.699999999999996</v>
       </c>
       <c r="K115" t="n">
-        <v>-66.66666666666676</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L115" t="n">
         <v>12.16000000000001</v>
@@ -6144,7 +6160,7 @@
         <v>5.699999999999996</v>
       </c>
       <c r="K116" t="n">
-        <v>-66.66666666666676</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L116" t="n">
         <v>12.13000000000001</v>
@@ -6195,7 +6211,7 @@
         <v>5.799999999999995</v>
       </c>
       <c r="K117" t="n">
-        <v>-42.857142857143</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L117" t="n">
         <v>12.11000000000001</v>
@@ -6297,7 +6313,7 @@
         <v>5.999999999999995</v>
       </c>
       <c r="K119" t="n">
-        <v>-25.00000000000017</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L119" t="n">
         <v>12.06000000000001</v>
@@ -6348,7 +6364,7 @@
         <v>5.999999999999995</v>
       </c>
       <c r="K120" t="n">
-        <v>-25.00000000000017</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L120" t="n">
         <v>12.05000000000001</v>

--- a/BackTest/2019-10-21 BackTest LBA.xlsx
+++ b/BackTest/2019-10-21 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S120"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>fluc_close</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -463,37 +438,36 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C2" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D2" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E2" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F2" t="n">
-        <v>83511.4841</v>
+        <v>18189</v>
       </c>
       <c r="G2" t="n">
-        <v>12.58666666666667</v>
+        <v>12.62</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>12.58166666666667</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -505,38 +479,33 @@
         <v>12.5</v>
       </c>
       <c r="C3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>83511.4841</v>
+      </c>
+      <c r="G3" t="n">
         <v>12.6</v>
       </c>
-      <c r="D3" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>78416</v>
-      </c>
-      <c r="G3" t="n">
-        <v>12.59333333333333</v>
-      </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>12.58666666666667</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09999999999999964</v>
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -557,29 +526,24 @@
         <v>12.5</v>
       </c>
       <c r="F4" t="n">
-        <v>160165.0793650794</v>
+        <v>78416</v>
       </c>
       <c r="G4" t="n">
-        <v>12.59833333333333</v>
+        <v>12.59333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>12.59333333333333</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09999999999999964</v>
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -591,38 +555,33 @@
         <v>12.5</v>
       </c>
       <c r="C5" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D5" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E5" t="n">
         <v>12.5</v>
       </c>
       <c r="F5" t="n">
-        <v>23</v>
+        <v>160165.0793650794</v>
       </c>
       <c r="G5" t="n">
-        <v>12.6</v>
+        <v>12.58</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>12.59833333333333</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1999999999999993</v>
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,41 +590,36 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C6" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D6" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E6" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F6" t="n">
-        <v>84806.4814</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>12.60166666666667</v>
+        <v>12.56</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -686,29 +640,24 @@
         <v>12.4</v>
       </c>
       <c r="F7" t="n">
-        <v>39248.0801</v>
+        <v>84806.4814</v>
       </c>
       <c r="G7" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="H7" t="n">
         <v>12.60166666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2999999999999989</v>
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -717,41 +666,36 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C8" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="D8" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="E8" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F8" t="n">
-        <v>136939</v>
+        <v>39248.0801</v>
       </c>
       <c r="G8" t="n">
-        <v>12.60833333333333</v>
+        <v>12.53333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>12.60166666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,41 +704,36 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="C9" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D9" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E9" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="F9" t="n">
-        <v>13168.1889</v>
+        <v>136939</v>
       </c>
       <c r="G9" t="n">
-        <v>12.61166666666667</v>
+        <v>12.55333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>12.60833333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -803,41 +742,36 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C10" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D10" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E10" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1131.2615</v>
+        <v>13168.1889</v>
       </c>
       <c r="G10" t="n">
-        <v>12.61666666666667</v>
+        <v>12.56666666666666</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>12.61166666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -858,31 +792,24 @@
         <v>12.6</v>
       </c>
       <c r="F11" t="n">
-        <v>13164.5647</v>
+        <v>1131.2615</v>
       </c>
       <c r="G11" t="n">
-        <v>12.62</v>
+        <v>12.57333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>12.61666666666667</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9000000000000004</v>
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>12.57</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -891,45 +818,36 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C12" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D12" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E12" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F12" t="n">
-        <v>1131.2615</v>
+        <v>13164.5647</v>
       </c>
       <c r="G12" t="n">
+        <v>12.57333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>12.62</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>-11.11111111111107</v>
-      </c>
-      <c r="L12" t="n">
-        <v>12.57</v>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -950,33 +868,24 @@
         <v>12.5</v>
       </c>
       <c r="F13" t="n">
-        <v>40000</v>
+        <v>1131.2615</v>
       </c>
       <c r="G13" t="n">
+        <v>12.56666666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>12.62</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-11.11111111111107</v>
-      </c>
-      <c r="L13" t="n">
-        <v>12.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -997,33 +906,24 @@
         <v>12.5</v>
       </c>
       <c r="F14" t="n">
-        <v>476</v>
+        <v>40000</v>
       </c>
       <c r="G14" t="n">
-        <v>12.62166666666667</v>
+        <v>12.56</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>12.62</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>12.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1044,33 +944,24 @@
         <v>12.5</v>
       </c>
       <c r="F15" t="n">
-        <v>6828.1227</v>
+        <v>476</v>
       </c>
       <c r="G15" t="n">
-        <v>12.62333333333334</v>
+        <v>12.56</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>12.62166666666667</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>14.28571428571421</v>
-      </c>
-      <c r="L15" t="n">
-        <v>12.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1079,45 +970,36 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C16" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D16" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E16" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F16" t="n">
-        <v>12.7419</v>
+        <v>6828.1227</v>
       </c>
       <c r="G16" t="n">
-        <v>12.62166666666667</v>
+        <v>12.55333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.62333333333334</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>12.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,45 +1008,36 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C17" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D17" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E17" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F17" t="n">
-        <v>25.2</v>
+        <v>12.7419</v>
       </c>
       <c r="G17" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="H17" t="n">
         <v>12.62166666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-60.00000000000014</v>
-      </c>
-      <c r="L17" t="n">
-        <v>12.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1185,33 +1058,24 @@
         <v>12.5</v>
       </c>
       <c r="F18" t="n">
-        <v>16757</v>
+        <v>25.2</v>
       </c>
       <c r="G18" t="n">
-        <v>12.62</v>
+        <v>12.54</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>12.62166666666667</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L18" t="n">
-        <v>12.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1232,33 +1096,24 @@
         <v>12.5</v>
       </c>
       <c r="F19" t="n">
-        <v>1643.892</v>
+        <v>16757</v>
       </c>
       <c r="G19" t="n">
-        <v>12.615</v>
+        <v>12.53333333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>12.62</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L19" t="n">
-        <v>12.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1279,33 +1134,24 @@
         <v>12.5</v>
       </c>
       <c r="F20" t="n">
-        <v>28000</v>
+        <v>1643.892</v>
       </c>
       <c r="G20" t="n">
-        <v>12.61</v>
+        <v>12.52666666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>12.615</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L20" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,47 +1160,36 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C21" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D21" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E21" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F21" t="n">
-        <v>103464.5998</v>
+        <v>28000</v>
       </c>
       <c r="G21" t="n">
-        <v>12.605</v>
+        <v>12.52666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>12.61</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.299999999999999</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L21" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="M21" t="n">
-        <v>12.525</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,47 +1198,36 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C22" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D22" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E22" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F22" t="n">
-        <v>28000</v>
+        <v>103464.5998</v>
       </c>
       <c r="G22" t="n">
-        <v>12.59833333333333</v>
+        <v>12.52666666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>12.605</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L22" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="M22" t="n">
-        <v>12.515</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1412,47 +1236,36 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C23" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D23" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E23" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F23" t="n">
-        <v>72174.6609</v>
+        <v>28000</v>
       </c>
       <c r="G23" t="n">
-        <v>12.59333333333333</v>
+        <v>12.52</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>12.59833333333333</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.499999999999998</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L23" t="n">
-        <v>12.45000000000001</v>
-      </c>
-      <c r="M23" t="n">
-        <v>12.505</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,44 +1277,33 @@
         <v>12.4</v>
       </c>
       <c r="C24" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D24" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E24" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F24" t="n">
-        <v>69909.61960000001</v>
+        <v>72174.6609</v>
       </c>
       <c r="G24" t="n">
-        <v>12.59166666666667</v>
+        <v>12.49333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>12.59333333333333</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.599999999999998</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>12.45000000000001</v>
-      </c>
-      <c r="M24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1513,44 +1315,33 @@
         <v>12.4</v>
       </c>
       <c r="C25" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D25" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E25" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F25" t="n">
-        <v>89837.60950000001</v>
+        <v>69909.61960000001</v>
       </c>
       <c r="G25" t="n">
-        <v>12.58666666666667</v>
+        <v>12.48</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>12.59166666666667</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.699999999999998</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>12.44000000000001</v>
-      </c>
-      <c r="M25" t="n">
-        <v>12.495</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1559,47 +1350,36 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C26" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D26" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E26" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F26" t="n">
-        <v>158767.1667</v>
+        <v>89837.60950000001</v>
       </c>
       <c r="G26" t="n">
-        <v>12.57833333333333</v>
+        <v>12.46666666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>12.58666666666667</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-42.857142857143</v>
-      </c>
-      <c r="L26" t="n">
-        <v>12.42000000000001</v>
-      </c>
-      <c r="M26" t="n">
-        <v>12.485</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1608,47 +1388,36 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C27" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D27" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E27" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F27" t="n">
-        <v>246</v>
+        <v>158767.1667</v>
       </c>
       <c r="G27" t="n">
-        <v>12.57166666666667</v>
+        <v>12.44</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>12.57833333333333</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-11.11111111111107</v>
-      </c>
-      <c r="L27" t="n">
-        <v>12.41000000000001</v>
-      </c>
-      <c r="M27" t="n">
-        <v>12.485</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1669,35 +1438,24 @@
         <v>12.4</v>
       </c>
       <c r="F28" t="n">
-        <v>19061.4774</v>
+        <v>246</v>
       </c>
       <c r="G28" t="n">
-        <v>12.565</v>
+        <v>12.43333333333334</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>12.57166666666667</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-11.11111111111107</v>
-      </c>
-      <c r="L28" t="n">
-        <v>12.40000000000001</v>
-      </c>
-      <c r="M28" t="n">
-        <v>12.465</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1718,35 +1476,24 @@
         <v>12.4</v>
       </c>
       <c r="F29" t="n">
-        <v>10320.0806</v>
+        <v>19061.4774</v>
       </c>
       <c r="G29" t="n">
-        <v>12.55833333333333</v>
+        <v>12.42666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>12.565</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-11.11111111111107</v>
-      </c>
-      <c r="L29" t="n">
-        <v>12.39000000000001</v>
-      </c>
-      <c r="M29" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1767,35 +1514,24 @@
         <v>12.4</v>
       </c>
       <c r="F30" t="n">
-        <v>1281.7454</v>
+        <v>10320.0806</v>
       </c>
       <c r="G30" t="n">
-        <v>12.55166666666667</v>
+        <v>12.42</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>12.55833333333333</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>12.38000000000001</v>
-      </c>
-      <c r="M30" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1807,46 +1543,33 @@
         <v>12.4</v>
       </c>
       <c r="C31" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D31" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E31" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F31" t="n">
-        <v>970640.0068</v>
+        <v>1281.7454</v>
       </c>
       <c r="G31" t="n">
-        <v>12.54833333333333</v>
+        <v>12.41333333333334</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>12.55166666666667</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.199999999999999</v>
-      </c>
-      <c r="K31" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L31" t="n">
-        <v>12.39000000000001</v>
-      </c>
-      <c r="M31" t="n">
-        <v>12.435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1855,49 +1578,36 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C32" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D32" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E32" t="n">
         <v>12.2</v>
       </c>
       <c r="F32" t="n">
-        <v>268119.5191</v>
+        <v>970640.0068</v>
       </c>
       <c r="G32" t="n">
-        <v>12.54166666666666</v>
+        <v>12.42</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>12.54833333333333</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-11.11111111111107</v>
-      </c>
-      <c r="L32" t="n">
-        <v>12.39000000000001</v>
-      </c>
-      <c r="M32" t="n">
-        <v>12.425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>12.47333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1915,40 +1625,27 @@
         <v>12.3</v>
       </c>
       <c r="E33" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F33" t="n">
-        <v>32800</v>
+        <v>268119.5191</v>
       </c>
       <c r="G33" t="n">
-        <v>12.535</v>
+        <v>12.40666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>12.54166666666666</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-24.99999999999989</v>
-      </c>
-      <c r="L33" t="n">
-        <v>12.38000000000001</v>
-      </c>
-      <c r="M33" t="n">
-        <v>12.415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>12.46333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1960,46 +1657,33 @@
         <v>12.3</v>
       </c>
       <c r="C34" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D34" t="n">
         <v>12.3</v>
       </c>
       <c r="E34" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F34" t="n">
-        <v>290295.0508</v>
+        <v>32800</v>
       </c>
       <c r="G34" t="n">
-        <v>12.52666666666666</v>
+        <v>12.39333333333334</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>12.535</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-25.00000000000006</v>
-      </c>
-      <c r="L34" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="M34" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>12.44999999999999</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,49 +1692,36 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C35" t="n">
         <v>12.2</v>
       </c>
       <c r="D35" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E35" t="n">
         <v>12.2</v>
       </c>
       <c r="F35" t="n">
-        <v>217310</v>
+        <v>290295.0508</v>
       </c>
       <c r="G35" t="n">
-        <v>12.51666666666666</v>
+        <v>12.37333333333334</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>12.52666666666666</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="M35" t="n">
-        <v>12.385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>12.43999999999999</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2059,49 +1730,36 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C36" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D36" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E36" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F36" t="n">
-        <v>29400</v>
+        <v>217310</v>
       </c>
       <c r="G36" t="n">
-        <v>12.51166666666666</v>
+        <v>12.35333333333334</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>12.51666666666666</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L36" t="n">
-        <v>12.34000000000001</v>
-      </c>
-      <c r="M36" t="n">
-        <v>12.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>12.43666666666666</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2122,37 +1780,24 @@
         <v>12.3</v>
       </c>
       <c r="F37" t="n">
-        <v>28914.1052</v>
+        <v>29400</v>
       </c>
       <c r="G37" t="n">
-        <v>12.50666666666666</v>
+        <v>12.34666666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>12.51166666666666</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L37" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="M37" t="n">
-        <v>12.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>12.43333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2173,37 +1818,24 @@
         <v>12.3</v>
       </c>
       <c r="F38" t="n">
-        <v>99817.87549999999</v>
+        <v>28914.1052</v>
       </c>
       <c r="G38" t="n">
-        <v>12.50333333333333</v>
+        <v>12.34666666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>12.50666666666666</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L38" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="M38" t="n">
-        <v>12.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>12.41666666666666</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,49 +1844,36 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C39" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D39" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E39" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="F39" t="n">
-        <v>270512.6955</v>
+        <v>99817.87549999999</v>
       </c>
       <c r="G39" t="n">
-        <v>12.49833333333333</v>
+        <v>12.34</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>12.50333333333333</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L39" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="M39" t="n">
-        <v>12.345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2266,46 +1885,33 @@
         <v>12.2</v>
       </c>
       <c r="C40" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D40" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E40" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F40" t="n">
-        <v>259200</v>
+        <v>270512.6955</v>
       </c>
       <c r="G40" t="n">
-        <v>12.495</v>
+        <v>12.32</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>12.49833333333333</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.800000000000004</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-33.33333333333294</v>
-      </c>
-      <c r="L40" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="M40" t="n">
-        <v>12.335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,7 +1920,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C41" t="n">
         <v>12.3</v>
@@ -2323,40 +1929,27 @@
         <v>12.3</v>
       </c>
       <c r="E41" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F41" t="n">
-        <v>118973.6532</v>
+        <v>259200</v>
       </c>
       <c r="G41" t="n">
-        <v>12.48999999999999</v>
+        <v>12.31333333333334</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>12.495</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.800000000000004</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="M41" t="n">
-        <v>12.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2377,37 +1970,24 @@
         <v>12.3</v>
       </c>
       <c r="F42" t="n">
-        <v>23838.4552</v>
+        <v>118973.6532</v>
       </c>
       <c r="G42" t="n">
-        <v>12.48666666666666</v>
+        <v>12.32</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>12.48999999999999</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.800000000000004</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>12.27000000000001</v>
-      </c>
-      <c r="M42" t="n">
-        <v>12.32999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>12.37333333333333</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,37 +2008,24 @@
         <v>12.3</v>
       </c>
       <c r="F43" t="n">
-        <v>528.2926</v>
+        <v>23838.4552</v>
       </c>
       <c r="G43" t="n">
-        <v>12.48333333333333</v>
+        <v>12.31333333333334</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>12.48666666666666</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.800000000000004</v>
-      </c>
-      <c r="K43" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L43" t="n">
-        <v>12.27000000000001</v>
-      </c>
-      <c r="M43" t="n">
-        <v>12.325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>12.36666666666666</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2479,37 +2046,24 @@
         <v>12.3</v>
       </c>
       <c r="F44" t="n">
-        <v>17571.7074</v>
+        <v>528.2926</v>
       </c>
       <c r="G44" t="n">
-        <v>12.47999999999999</v>
+        <v>12.30666666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>12.48333333333333</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.800000000000004</v>
-      </c>
-      <c r="K44" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L44" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="M44" t="n">
-        <v>12.31499999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2530,37 +2084,24 @@
         <v>12.3</v>
       </c>
       <c r="F45" t="n">
-        <v>9406.539699999999</v>
+        <v>17571.7074</v>
       </c>
       <c r="G45" t="n">
-        <v>12.47333333333332</v>
+        <v>12.30000000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>12.47999999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.800000000000004</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="M45" t="n">
-        <v>12.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>12.35333333333333</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2581,37 +2122,24 @@
         <v>12.3</v>
       </c>
       <c r="F46" t="n">
-        <v>5160</v>
+        <v>9406.539699999999</v>
       </c>
       <c r="G46" t="n">
-        <v>12.46499999999999</v>
+        <v>12.29333333333334</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>12.47333333333332</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.800000000000004</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="M46" t="n">
-        <v>12.31499999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,49 +2148,36 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C47" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D47" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E47" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F47" t="n">
-        <v>23838.4552</v>
+        <v>5160</v>
       </c>
       <c r="G47" t="n">
-        <v>12.45833333333332</v>
+        <v>12.28000000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>12.46499999999999</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2.900000000000004</v>
-      </c>
-      <c r="K47" t="n">
-        <v>33.33333333333294</v>
-      </c>
-      <c r="L47" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="M47" t="n">
-        <v>12.31499999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>12.34666666666666</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2683,37 +2198,24 @@
         <v>12.4</v>
       </c>
       <c r="F48" t="n">
-        <v>38165.6855</v>
+        <v>23838.4552</v>
       </c>
       <c r="G48" t="n">
-        <v>12.45333333333332</v>
+        <v>12.28666666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>12.45833333333332</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.900000000000004</v>
-      </c>
-      <c r="K48" t="n">
-        <v>100</v>
-      </c>
-      <c r="L48" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="M48" t="n">
-        <v>12.31499999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>12.34333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2734,37 +2236,24 @@
         <v>12.4</v>
       </c>
       <c r="F49" t="n">
-        <v>248</v>
+        <v>38165.6855</v>
       </c>
       <c r="G49" t="n">
-        <v>12.44666666666666</v>
+        <v>12.29333333333334</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>12.45333333333332</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.900000000000004</v>
-      </c>
-      <c r="K49" t="n">
-        <v>100</v>
-      </c>
-      <c r="L49" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="M49" t="n">
-        <v>12.31499999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2785,37 +2274,24 @@
         <v>12.4</v>
       </c>
       <c r="F50" t="n">
-        <v>8070</v>
+        <v>248</v>
       </c>
       <c r="G50" t="n">
-        <v>12.43999999999999</v>
+        <v>12.30666666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>12.44666666666666</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.900000000000004</v>
-      </c>
-      <c r="K50" t="n">
-        <v>100</v>
-      </c>
-      <c r="L50" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="M50" t="n">
-        <v>12.31499999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>12.33666666666666</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2836,37 +2312,24 @@
         <v>12.4</v>
       </c>
       <c r="F51" t="n">
-        <v>2500</v>
+        <v>8070</v>
       </c>
       <c r="G51" t="n">
-        <v>12.43499999999999</v>
+        <v>12.32000000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>12.43999999999999</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.900000000000004</v>
-      </c>
-      <c r="K51" t="n">
-        <v>100</v>
-      </c>
-      <c r="L51" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="M51" t="n">
-        <v>12.30999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
-        <v>12.33666666666666</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2887,37 +2350,24 @@
         <v>12.4</v>
       </c>
       <c r="F52" t="n">
-        <v>2790</v>
+        <v>2500</v>
       </c>
       <c r="G52" t="n">
-        <v>12.43333333333332</v>
+        <v>12.32666666666668</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>12.43499999999999</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.900000000000004</v>
-      </c>
-      <c r="K52" t="n">
-        <v>100</v>
-      </c>
-      <c r="L52" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="M52" t="n">
-        <v>12.31499999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>12.33999999999999</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2941,34 +2391,21 @@
         <v>2790</v>
       </c>
       <c r="G53" t="n">
-        <v>12.43166666666665</v>
+        <v>12.33333333333334</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>12.43333333333332</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.900000000000004</v>
-      </c>
-      <c r="K53" t="n">
-        <v>100</v>
-      </c>
-      <c r="L53" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="M53" t="n">
-        <v>12.31999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>12.33999999999999</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2989,37 +2426,24 @@
         <v>12.4</v>
       </c>
       <c r="F54" t="n">
-        <v>40000</v>
+        <v>2790</v>
       </c>
       <c r="G54" t="n">
-        <v>12.42999999999999</v>
+        <v>12.34000000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>12.43166666666665</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2.900000000000004</v>
-      </c>
-      <c r="K54" t="n">
-        <v>100</v>
-      </c>
-      <c r="L54" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="M54" t="n">
-        <v>12.32999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>12.33666666666666</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3040,37 +2464,24 @@
         <v>12.4</v>
       </c>
       <c r="F55" t="n">
-        <v>156</v>
+        <v>40000</v>
       </c>
       <c r="G55" t="n">
-        <v>12.42833333333332</v>
+        <v>12.35333333333334</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>12.42999999999999</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2.900000000000004</v>
-      </c>
-      <c r="K55" t="n">
-        <v>100</v>
-      </c>
-      <c r="L55" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="M55" t="n">
-        <v>12.33999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>12.33666666666666</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3082,46 +2493,33 @@
         <v>12.4</v>
       </c>
       <c r="C56" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D56" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E56" t="n">
         <v>12.4</v>
       </c>
       <c r="F56" t="n">
-        <v>40000</v>
+        <v>156</v>
       </c>
       <c r="G56" t="n">
-        <v>12.42666666666665</v>
+        <v>12.36000000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>12.42833333333332</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>3.000000000000004</v>
-      </c>
-      <c r="K56" t="n">
-        <v>100</v>
-      </c>
-      <c r="L56" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="M56" t="n">
-        <v>12.34999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>12.34666666666666</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,7 +2528,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C57" t="n">
         <v>12.5</v>
@@ -3139,40 +2537,27 @@
         <v>12.5</v>
       </c>
       <c r="E57" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F57" t="n">
-        <v>40700.92</v>
+        <v>40000</v>
       </c>
       <c r="G57" t="n">
-        <v>12.42499999999999</v>
+        <v>12.37333333333334</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>12.42666666666665</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>3.000000000000004</v>
-      </c>
-      <c r="K57" t="n">
-        <v>100</v>
-      </c>
-      <c r="L57" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="M57" t="n">
-        <v>12.35999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
-        <v>12.34999999999999</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3181,49 +2566,36 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C58" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D58" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E58" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F58" t="n">
-        <v>35012.7418</v>
+        <v>40700.92</v>
       </c>
       <c r="G58" t="n">
-        <v>12.42166666666665</v>
+        <v>12.38666666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>12.42499999999999</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>3.100000000000003</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="M58" t="n">
-        <v>12.36499999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
-        <v>12.34999999999999</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3235,46 +2607,33 @@
         <v>12.4</v>
       </c>
       <c r="C59" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D59" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E59" t="n">
         <v>12.4</v>
       </c>
       <c r="F59" t="n">
-        <v>17020.0629</v>
+        <v>35012.7418</v>
       </c>
       <c r="G59" t="n">
+        <v>12.39333333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>12.42166666666665</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="K59" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L59" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="M59" t="n">
-        <v>12.37999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>12.35333333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3286,46 +2645,33 @@
         <v>12.4</v>
       </c>
       <c r="C60" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D60" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E60" t="n">
         <v>12.4</v>
       </c>
       <c r="F60" t="n">
-        <v>21032.5992</v>
+        <v>17020.0629</v>
       </c>
       <c r="G60" t="n">
-        <v>12.41833333333332</v>
+        <v>12.40666666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>12.42166666666665</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>3.300000000000002</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="M60" t="n">
-        <v>12.38499999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
-        <v>12.35333333333333</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,49 +2680,36 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C61" t="n">
         <v>12.4</v>
       </c>
       <c r="D61" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E61" t="n">
         <v>12.4</v>
       </c>
       <c r="F61" t="n">
-        <v>51529.5736</v>
+        <v>21032.5992</v>
       </c>
       <c r="G61" t="n">
-        <v>12.41499999999998</v>
+        <v>12.41333333333334</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>12.41833333333332</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>3.300000000000002</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="M61" t="n">
-        <v>12.38999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
-        <v>12.34999999999999</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3385,49 +2718,36 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C62" t="n">
         <v>12.4</v>
       </c>
       <c r="D62" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E62" t="n">
         <v>12.4</v>
       </c>
       <c r="F62" t="n">
-        <v>251</v>
+        <v>51529.5736</v>
       </c>
       <c r="G62" t="n">
-        <v>12.41333333333332</v>
+        <v>12.42000000000001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>12.41499999999998</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>3.300000000000002</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="M62" t="n">
-        <v>12.39499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
-        <v>12.35333333333333</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,46 +2759,33 @@
         <v>12.4</v>
       </c>
       <c r="C63" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D63" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="E63" t="n">
         <v>12.4</v>
       </c>
       <c r="F63" t="n">
-        <v>134655.8405</v>
+        <v>251</v>
       </c>
       <c r="G63" t="n">
+        <v>12.42000000000001</v>
+      </c>
+      <c r="H63" t="n">
         <v>12.41333333333332</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>3.500000000000002</v>
-      </c>
-      <c r="K63" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L63" t="n">
-        <v>12.44999999999999</v>
-      </c>
-      <c r="M63" t="n">
-        <v>12.40999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
-        <v>12.36333333333333</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3487,49 +2794,36 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C64" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D64" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E64" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F64" t="n">
-        <v>23552.4</v>
+        <v>134655.8405</v>
       </c>
       <c r="G64" t="n">
-        <v>12.41166666666665</v>
+        <v>12.43333333333334</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>12.41333333333332</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>3.600000000000001</v>
-      </c>
-      <c r="K64" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L64" t="n">
-        <v>12.45999999999999</v>
-      </c>
-      <c r="M64" t="n">
-        <v>12.41999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
-        <v>12.37333333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3550,37 +2844,24 @@
         <v>12.5</v>
       </c>
       <c r="F65" t="n">
-        <v>17.12</v>
+        <v>23552.4</v>
       </c>
       <c r="G65" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="H65" t="n">
         <v>12.41166666666665</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>3.600000000000001</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>12.46999999999999</v>
-      </c>
-      <c r="M65" t="n">
-        <v>12.42999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
-        <v>12.38333333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,46 +2873,33 @@
         <v>12.5</v>
       </c>
       <c r="C66" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D66" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E66" t="n">
         <v>12.5</v>
       </c>
       <c r="F66" t="n">
-        <v>7500</v>
+        <v>17.12</v>
       </c>
       <c r="G66" t="n">
-        <v>12.41499999999998</v>
+        <v>12.44666666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>12.41166666666665</v>
       </c>
       <c r="I66" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>3.700000000000001</v>
-      </c>
-      <c r="K66" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L66" t="n">
-        <v>12.47999999999999</v>
-      </c>
-      <c r="M66" t="n">
-        <v>12.44499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
-        <v>12.39333333333333</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3652,37 +2920,24 @@
         <v>12.5</v>
       </c>
       <c r="F67" t="n">
-        <v>78468.2285</v>
+        <v>7500</v>
       </c>
       <c r="G67" t="n">
-        <v>12.41833333333332</v>
+        <v>12.46</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>12.41499999999998</v>
       </c>
       <c r="I67" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>3.700000000000001</v>
-      </c>
-      <c r="K67" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L67" t="n">
-        <v>12.48999999999999</v>
-      </c>
-      <c r="M67" t="n">
-        <v>12.45499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
-        <v>12.40333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3691,7 +2946,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C68" t="n">
         <v>12.6</v>
@@ -3700,40 +2955,27 @@
         <v>12.6</v>
       </c>
       <c r="E68" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F68" t="n">
-        <v>124300</v>
+        <v>78468.2285</v>
       </c>
       <c r="G68" t="n">
-        <v>12.41499999999999</v>
+        <v>12.47333333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>12.41833333333332</v>
       </c>
       <c r="I68" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>3.700000000000001</v>
-      </c>
-      <c r="K68" t="n">
-        <v>20</v>
-      </c>
-      <c r="L68" t="n">
-        <v>12.50999999999999</v>
-      </c>
-      <c r="M68" t="n">
-        <v>12.46499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
-        <v>12.41333333333333</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,37 +2996,24 @@
         <v>12.6</v>
       </c>
       <c r="F69" t="n">
-        <v>50000</v>
+        <v>124300</v>
       </c>
       <c r="G69" t="n">
-        <v>12.41333333333332</v>
+        <v>12.48666666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>12.41499999999999</v>
       </c>
       <c r="I69" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>3.700000000000001</v>
-      </c>
-      <c r="K69" t="n">
-        <v>50</v>
-      </c>
-      <c r="L69" t="n">
-        <v>12.51999999999999</v>
-      </c>
-      <c r="M69" t="n">
-        <v>12.47499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
-        <v>12.42666666666666</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,7 +3022,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C70" t="n">
         <v>12.6</v>
@@ -3802,40 +3031,27 @@
         <v>12.6</v>
       </c>
       <c r="E70" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F70" t="n">
-        <v>159264.5615</v>
+        <v>50000</v>
       </c>
       <c r="G70" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H70" t="n">
         <v>12.41333333333332</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>3.700000000000001</v>
-      </c>
-      <c r="K70" t="n">
-        <v>50</v>
-      </c>
-      <c r="L70" t="n">
-        <v>12.53999999999999</v>
-      </c>
-      <c r="M70" t="n">
-        <v>12.48499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
-        <v>12.43666666666666</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3847,46 +3063,33 @@
         <v>12.5</v>
       </c>
       <c r="C71" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D71" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E71" t="n">
         <v>12.5</v>
       </c>
       <c r="F71" t="n">
-        <v>14649.2097</v>
+        <v>159264.5615</v>
       </c>
       <c r="G71" t="n">
-        <v>12.41166666666665</v>
+        <v>12.51333333333333</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>12.41333333333332</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>3.800000000000001</v>
-      </c>
-      <c r="K71" t="n">
-        <v>20</v>
-      </c>
-      <c r="L71" t="n">
-        <v>12.54999999999999</v>
-      </c>
-      <c r="M71" t="n">
-        <v>12.48999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
-        <v>12.44333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3907,37 +3110,24 @@
         <v>12.5</v>
       </c>
       <c r="F72" t="n">
-        <v>13688</v>
+        <v>14649.2097</v>
       </c>
       <c r="G72" t="n">
+        <v>12.51333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>12.41166666666665</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>3.800000000000001</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L72" t="n">
-        <v>12.55999999999999</v>
-      </c>
-      <c r="M72" t="n">
-        <v>12.49499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3949,46 +3139,33 @@
         <v>12.5</v>
       </c>
       <c r="C73" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D73" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E73" t="n">
         <v>12.5</v>
       </c>
       <c r="F73" t="n">
-        <v>173934.6556</v>
+        <v>13688</v>
       </c>
       <c r="G73" t="n">
-        <v>12.41333333333332</v>
+        <v>12.51333333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>12.41166666666665</v>
       </c>
       <c r="I73" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K73" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L73" t="n">
-        <v>12.55999999999999</v>
-      </c>
-      <c r="M73" t="n">
-        <v>12.50499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3997,49 +3174,36 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C74" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D74" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E74" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F74" t="n">
-        <v>107.6468</v>
+        <v>173934.6556</v>
       </c>
       <c r="G74" t="n">
-        <v>12.41166666666665</v>
+        <v>12.52666666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>12.41333333333332</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L74" t="n">
-        <v>12.54999999999999</v>
-      </c>
-      <c r="M74" t="n">
-        <v>12.50499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="n">
-        <v>12.46333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,49 +3212,36 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C75" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D75" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E75" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F75" t="n">
-        <v>21.04</v>
+        <v>107.6468</v>
       </c>
       <c r="G75" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="H75" t="n">
         <v>12.41166666666665</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>4.199999999999999</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L75" t="n">
-        <v>12.54999999999999</v>
-      </c>
-      <c r="M75" t="n">
-        <v>12.50999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4099,49 +3250,36 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C76" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D76" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E76" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F76" t="n">
-        <v>9975</v>
+        <v>21.04</v>
       </c>
       <c r="G76" t="n">
+        <v>12.52666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>12.41166666666665</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>4.299999999999999</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L76" t="n">
-        <v>12.52999999999999</v>
-      </c>
-      <c r="M76" t="n">
-        <v>12.50499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
       <c r="N76" t="n">
-        <v>12.47333333333333</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4150,49 +3288,36 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C77" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D77" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="E77" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F77" t="n">
-        <v>127428</v>
+        <v>9975</v>
       </c>
       <c r="G77" t="n">
-        <v>12.41333333333332</v>
+        <v>12.52666666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>12.41166666666665</v>
       </c>
       <c r="I77" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>4.499999999999998</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>12.52999999999999</v>
-      </c>
-      <c r="M77" t="n">
-        <v>12.50999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4201,7 +3326,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C78" t="n">
         <v>12.6</v>
@@ -4210,40 +3335,27 @@
         <v>12.6</v>
       </c>
       <c r="E78" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F78" t="n">
-        <v>20000</v>
+        <v>127428</v>
       </c>
       <c r="G78" t="n">
-        <v>12.41499999999999</v>
+        <v>12.54</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>12.41333333333332</v>
       </c>
       <c r="I78" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>4.499999999999998</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>12.52999999999999</v>
-      </c>
-      <c r="M78" t="n">
-        <v>12.51999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="n">
-        <v>12.48666666666666</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,49 +3364,36 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C79" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D79" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E79" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F79" t="n">
-        <v>3402.7456</v>
+        <v>20000</v>
       </c>
       <c r="G79" t="n">
-        <v>12.41333333333332</v>
+        <v>12.54</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>12.41499999999999</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>4.699999999999998</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L79" t="n">
-        <v>12.50999999999999</v>
-      </c>
-      <c r="M79" t="n">
-        <v>12.51499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="n">
-        <v>12.48666666666666</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4303,49 +3402,36 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C80" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D80" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E80" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F80" t="n">
-        <v>22859.84</v>
+        <v>3402.7456</v>
       </c>
       <c r="G80" t="n">
+        <v>12.53333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>12.41333333333332</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>4.799999999999997</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>12.49999999999999</v>
-      </c>
-      <c r="M80" t="n">
-        <v>12.51999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4366,37 +3452,24 @@
         <v>12.5</v>
       </c>
       <c r="F81" t="n">
-        <v>39999.9999</v>
+        <v>22859.84</v>
       </c>
       <c r="G81" t="n">
-        <v>12.41499999999999</v>
+        <v>12.53333333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>12.41333333333332</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>4.799999999999997</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>12.49999999999999</v>
-      </c>
-      <c r="M81" t="n">
-        <v>12.52499999999998</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
-        <v>12.49333333333333</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4417,37 +3490,24 @@
         <v>12.5</v>
       </c>
       <c r="F82" t="n">
-        <v>48895</v>
+        <v>39999.9999</v>
       </c>
       <c r="G82" t="n">
-        <v>12.41833333333332</v>
+        <v>12.52666666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>12.41499999999999</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>4.799999999999997</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L82" t="n">
-        <v>12.49999999999999</v>
-      </c>
-      <c r="M82" t="n">
-        <v>12.52999999999998</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
       <c r="N82" t="n">
-        <v>12.49666666666667</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4468,37 +3528,24 @@
         <v>12.5</v>
       </c>
       <c r="F83" t="n">
-        <v>322.5807</v>
+        <v>48895</v>
       </c>
       <c r="G83" t="n">
-        <v>12.41999999999999</v>
+        <v>12.52</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>12.41833333333332</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>4.799999999999997</v>
-      </c>
-      <c r="K83" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L83" t="n">
-        <v>12.48999999999999</v>
-      </c>
-      <c r="M83" t="n">
-        <v>12.52499999999998</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
       <c r="N83" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,49 +3554,36 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C84" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D84" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E84" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F84" t="n">
-        <v>168350.8906</v>
+        <v>322.5807</v>
       </c>
       <c r="G84" t="n">
-        <v>12.41833333333332</v>
+        <v>12.51333333333333</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>12.41999999999999</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>4.899999999999997</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L84" t="n">
-        <v>12.48999999999999</v>
-      </c>
-      <c r="M84" t="n">
-        <v>12.51999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
       <c r="N84" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,49 +3592,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C85" t="n">
         <v>12.4</v>
       </c>
       <c r="D85" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E85" t="n">
         <v>12.3</v>
       </c>
       <c r="F85" t="n">
-        <v>46180</v>
+        <v>168350.8906</v>
       </c>
       <c r="G85" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H85" t="n">
         <v>12.41833333333332</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>4.899999999999997</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>12.47999999999999</v>
-      </c>
-      <c r="M85" t="n">
-        <v>12.51499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4609,49 +3630,36 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C86" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D86" t="n">
         <v>12.5</v>
       </c>
       <c r="E86" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F86" t="n">
-        <v>52655.6329</v>
+        <v>46180</v>
       </c>
       <c r="G86" t="n">
-        <v>12.42333333333332</v>
+        <v>12.48666666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>12.41833333333332</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>4.999999999999996</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L86" t="n">
-        <v>12.48999999999999</v>
-      </c>
-      <c r="M86" t="n">
-        <v>12.50999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,7 +3668,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C87" t="n">
         <v>12.5</v>
@@ -4669,40 +3677,27 @@
         <v>12.5</v>
       </c>
       <c r="E87" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F87" t="n">
-        <v>6429.8736</v>
+        <v>52655.6329</v>
       </c>
       <c r="G87" t="n">
-        <v>12.42499999999999</v>
+        <v>12.48666666666667</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>12.42333333333332</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>4.999999999999996</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L87" t="n">
-        <v>12.47999999999999</v>
-      </c>
-      <c r="M87" t="n">
-        <v>12.50499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
       <c r="N87" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4723,37 +3718,24 @@
         <v>12.5</v>
       </c>
       <c r="F88" t="n">
-        <v>4660</v>
+        <v>6429.8736</v>
       </c>
       <c r="G88" t="n">
-        <v>12.42666666666665</v>
+        <v>12.48666666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>12.42499999999999</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>4.999999999999996</v>
-      </c>
-      <c r="K88" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L88" t="n">
-        <v>12.46999999999999</v>
-      </c>
-      <c r="M88" t="n">
-        <v>12.49999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
       <c r="N88" t="n">
-        <v>12.50333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4762,49 +3744,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C89" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D89" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E89" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F89" t="n">
-        <v>2500</v>
+        <v>4660</v>
       </c>
       <c r="G89" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="H89" t="n">
         <v>12.42666666666665</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>5.099999999999996</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L89" t="n">
-        <v>12.46999999999999</v>
-      </c>
-      <c r="M89" t="n">
-        <v>12.48999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4825,37 +3794,24 @@
         <v>12.4</v>
       </c>
       <c r="F90" t="n">
-        <v>23000</v>
+        <v>2500</v>
       </c>
       <c r="G90" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="H90" t="n">
         <v>12.42666666666665</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>5.099999999999996</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L90" t="n">
-        <v>12.45999999999999</v>
-      </c>
-      <c r="M90" t="n">
-        <v>12.47999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
       <c r="N90" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,37 +3832,24 @@
         <v>12.4</v>
       </c>
       <c r="F91" t="n">
-        <v>139705.3184</v>
+        <v>23000</v>
       </c>
       <c r="G91" t="n">
-        <v>12.42499999999999</v>
+        <v>12.47333333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>12.42666666666665</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>5.099999999999996</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L91" t="n">
-        <v>12.44999999999999</v>
-      </c>
-      <c r="M91" t="n">
-        <v>12.47499999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
       <c r="N91" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4927,37 +3870,24 @@
         <v>12.4</v>
       </c>
       <c r="F92" t="n">
-        <v>24.9574</v>
+        <v>139705.3184</v>
       </c>
       <c r="G92" t="n">
-        <v>12.42666666666665</v>
+        <v>12.47333333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>12.42499999999999</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>5.099999999999996</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L92" t="n">
-        <v>12.43999999999999</v>
-      </c>
-      <c r="M92" t="n">
-        <v>12.46999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
       <c r="N92" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4978,37 +3908,24 @@
         <v>12.4</v>
       </c>
       <c r="F93" t="n">
-        <v>18426.0529</v>
+        <v>24.9574</v>
       </c>
       <c r="G93" t="n">
-        <v>12.42833333333332</v>
+        <v>12.46</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>12.42666666666665</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>5.099999999999996</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="M93" t="n">
-        <v>12.45999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
       <c r="N93" t="n">
-        <v>12.49333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5029,37 +3946,24 @@
         <v>12.4</v>
       </c>
       <c r="F94" t="n">
-        <v>106160.4454</v>
+        <v>18426.0529</v>
       </c>
       <c r="G94" t="n">
-        <v>12.43166666666665</v>
+        <v>12.44666666666667</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>12.42833333333332</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>5.099999999999996</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="M94" t="n">
-        <v>12.45999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5080,37 +3984,24 @@
         <v>12.4</v>
       </c>
       <c r="F95" t="n">
-        <v>5225.3251</v>
+        <v>106160.4454</v>
       </c>
       <c r="G95" t="n">
-        <v>12.43499999999998</v>
+        <v>12.44666666666667</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>12.43166666666665</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>5.099999999999996</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L95" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="M95" t="n">
-        <v>12.45499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
-        <v>12.48666666666666</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5131,37 +4022,24 @@
         <v>12.4</v>
       </c>
       <c r="F96" t="n">
-        <v>5792.2481</v>
+        <v>5225.3251</v>
       </c>
       <c r="G96" t="n">
-        <v>12.43666666666665</v>
+        <v>12.44</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>12.43499999999998</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>5.099999999999996</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L96" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="M96" t="n">
-        <v>12.45499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
       <c r="N96" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5182,37 +4060,24 @@
         <v>12.4</v>
       </c>
       <c r="F97" t="n">
-        <v>62500.2328</v>
+        <v>5792.2481</v>
       </c>
       <c r="G97" t="n">
-        <v>12.43833333333332</v>
+        <v>12.43333333333334</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>12.43666666666665</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>5.099999999999996</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L97" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="M97" t="n">
-        <v>12.44499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
       <c r="N97" t="n">
-        <v>12.47333333333333</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5221,49 +4086,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C98" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D98" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E98" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F98" t="n">
-        <v>46873.6913</v>
+        <v>62500.2328</v>
       </c>
       <c r="G98" t="n">
+        <v>12.42666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>12.43833333333332</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>5.199999999999996</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L98" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="M98" t="n">
-        <v>12.42999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
-        <v>12.46333333333333</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5284,37 +4136,24 @@
         <v>12.3</v>
       </c>
       <c r="F99" t="n">
-        <v>17370</v>
+        <v>46873.6913</v>
       </c>
       <c r="G99" t="n">
-        <v>12.43999999999999</v>
+        <v>12.41333333333334</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>12.43833333333332</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>5.199999999999996</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L99" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="M99" t="n">
-        <v>12.42499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
       <c r="N99" t="n">
-        <v>12.45333333333333</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5338,34 +4177,25 @@
         <v>17370</v>
       </c>
       <c r="G100" t="n">
+        <v>12.40666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>12.43999999999999</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>-0.1999999999999993</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>5.199999999999996</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>-100</v>
+        <v>12.3</v>
       </c>
       <c r="L100" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="M100" t="n">
-        <v>12.41499999999998</v>
-      </c>
+        <v>12.3</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
-        <v>12.44333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5389,34 +4219,29 @@
         <v>17370</v>
       </c>
       <c r="G101" t="n">
+        <v>12.40000000000001</v>
+      </c>
+      <c r="H101" t="n">
         <v>12.43999999999999</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>-0.1999999999999993</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>5.199999999999996</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>-100</v>
+        <v>12.3</v>
       </c>
       <c r="L101" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="M101" t="n">
-        <v>12.40499999999998</v>
+        <v>12.3</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N101" t="n">
-        <v>12.43666666666666</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5431,43 +4256,38 @@
         <v>12.3</v>
       </c>
       <c r="D102" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E102" t="n">
         <v>12.3</v>
       </c>
       <c r="F102" t="n">
-        <v>47760</v>
+        <v>17370</v>
       </c>
       <c r="G102" t="n">
+        <v>12.38666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>12.43999999999999</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>-0.1999999999999993</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>5.199999999999996</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>-100</v>
+        <v>12.3</v>
       </c>
       <c r="L102" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="M102" t="n">
-        <v>12.39499999999998</v>
+        <v>12.3</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N102" t="n">
-        <v>12.42999999999999</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5482,43 +4302,38 @@
         <v>12.3</v>
       </c>
       <c r="D103" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E103" t="n">
         <v>12.3</v>
       </c>
       <c r="F103" t="n">
-        <v>13020</v>
+        <v>47760</v>
       </c>
       <c r="G103" t="n">
+        <v>12.37333333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>12.43999999999999</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>-0.1999999999999993</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>5.199999999999996</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>-100</v>
+        <v>12.3</v>
       </c>
       <c r="L103" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="M103" t="n">
-        <v>12.38499999999998</v>
+        <v>12.3</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="N103" t="n">
-        <v>12.41999999999999</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,37 +4354,32 @@
         <v>12.3</v>
       </c>
       <c r="F104" t="n">
-        <v>4350</v>
+        <v>13020</v>
       </c>
       <c r="G104" t="n">
+        <v>12.36000000000001</v>
+      </c>
+      <c r="H104" t="n">
         <v>12.43999999999999</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>-0.1999999999999993</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>5.199999999999996</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>-100</v>
+        <v>12.3</v>
       </c>
       <c r="L104" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="M104" t="n">
-        <v>12.37999999999998</v>
+        <v>12.3</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N104" t="n">
-        <v>12.41666666666666</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,34 +4403,29 @@
         <v>4350</v>
       </c>
       <c r="G105" t="n">
+        <v>12.35333333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>12.43999999999999</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>-0.1999999999999993</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>5.199999999999996</v>
+        <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>-100</v>
+        <v>12.3</v>
       </c>
       <c r="L105" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="M105" t="n">
-        <v>12.37499999999998</v>
+        <v>12.3</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N105" t="n">
-        <v>12.40999999999999</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5635,43 +4440,38 @@
         <v>12.3</v>
       </c>
       <c r="D106" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E106" t="n">
         <v>12.3</v>
       </c>
       <c r="F106" t="n">
-        <v>365717.7805</v>
+        <v>4350</v>
       </c>
       <c r="G106" t="n">
+        <v>12.34666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>12.43999999999999</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>-0.1999999999999993</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>5.199999999999996</v>
+        <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>-100</v>
+        <v>12.3</v>
       </c>
       <c r="L106" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="M106" t="n">
-        <v>12.36499999999998</v>
+        <v>12.3</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N106" t="n">
-        <v>12.40666666666666</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5686,41 +4486,38 @@
         <v>12.3</v>
       </c>
       <c r="D107" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E107" t="n">
         <v>12.3</v>
       </c>
       <c r="F107" t="n">
-        <v>34320</v>
+        <v>365717.7805</v>
       </c>
       <c r="G107" t="n">
-        <v>12.43833333333332</v>
+        <v>12.34000000000001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>12.43999999999999</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.1999999999999993</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>5.199999999999996</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>12.3</v>
+      </c>
       <c r="L107" t="n">
         <v>12.3</v>
       </c>
-      <c r="M107" t="n">
-        <v>12.35499999999998</v>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N107" t="n">
-        <v>12.39666666666666</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5741,35 +4538,32 @@
         <v>12.3</v>
       </c>
       <c r="F108" t="n">
-        <v>17160</v>
+        <v>34320</v>
       </c>
       <c r="G108" t="n">
-        <v>12.43666666666665</v>
+        <v>12.33333333333334</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>12.43833333333332</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.1999999999999993</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>5.199999999999996</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>12.3</v>
+      </c>
       <c r="L108" t="n">
         <v>12.3</v>
       </c>
-      <c r="M108" t="n">
-        <v>12.34499999999998</v>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N108" t="n">
-        <v>12.38666666666666</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5793,32 +4587,29 @@
         <v>17160</v>
       </c>
       <c r="G109" t="n">
-        <v>12.43499999999998</v>
+        <v>12.32666666666668</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>12.43666666666665</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.1999999999999993</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>5.199999999999996</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>12.3</v>
+      </c>
       <c r="L109" t="n">
         <v>12.3</v>
       </c>
-      <c r="M109" t="n">
-        <v>12.33999999999998</v>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N109" t="n">
-        <v>12.38333333333333</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5827,559 +4618,44 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C110" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D110" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E110" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F110" t="n">
-        <v>40322.5806</v>
+        <v>17160</v>
       </c>
       <c r="G110" t="n">
-        <v>12.43166666666665</v>
+        <v>12.32000000000001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>12.43499999999998</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.3000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>5.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>-100</v>
+        <v>12.3</v>
       </c>
       <c r="L110" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="M110" t="n">
-        <v>12.32999999999998</v>
+        <v>12.3</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N110" t="n">
-        <v>12.37333333333333</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C111" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D111" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F111" t="n">
-        <v>4530</v>
-      </c>
-      <c r="G111" t="n">
-        <v>12.42833333333332</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J111" t="n">
-        <v>5.299999999999997</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L111" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="M111" t="n">
-        <v>12.31999999999998</v>
-      </c>
-      <c r="N111" t="n">
-        <v>12.36333333333333</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C112" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D112" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E112" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F112" t="n">
-        <v>101.1157</v>
-      </c>
-      <c r="G112" t="n">
-        <v>12.42333333333332</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J112" t="n">
-        <v>5.399999999999997</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L112" t="n">
-        <v>12.26000000000001</v>
-      </c>
-      <c r="M112" t="n">
-        <v>12.30499999999998</v>
-      </c>
-      <c r="N112" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>12</v>
-      </c>
-      <c r="C113" t="n">
-        <v>12</v>
-      </c>
-      <c r="D113" t="n">
-        <v>12</v>
-      </c>
-      <c r="E113" t="n">
-        <v>12</v>
-      </c>
-      <c r="F113" t="n">
-        <v>19739.661</v>
-      </c>
-      <c r="G113" t="n">
-        <v>12.41666666666665</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J113" t="n">
-        <v>5.499999999999996</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L113" t="n">
-        <v>12.23000000000001</v>
-      </c>
-      <c r="M113" t="n">
-        <v>12.28499999999998</v>
-      </c>
-      <c r="N113" t="n">
-        <v>12.33333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>12</v>
-      </c>
-      <c r="C114" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D114" t="n">
-        <v>12</v>
-      </c>
-      <c r="E114" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F114" t="n">
-        <v>142106.3415</v>
-      </c>
-      <c r="G114" t="n">
-        <v>12.40833333333332</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="J114" t="n">
-        <v>5.599999999999996</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L114" t="n">
-        <v>12.19000000000001</v>
-      </c>
-      <c r="M114" t="n">
-        <v>12.25999999999998</v>
-      </c>
-      <c r="N114" t="n">
-        <v>12.31666666666666</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>12</v>
-      </c>
-      <c r="C115" t="n">
-        <v>12</v>
-      </c>
-      <c r="D115" t="n">
-        <v>12</v>
-      </c>
-      <c r="E115" t="n">
-        <v>12</v>
-      </c>
-      <c r="F115" t="n">
-        <v>12207.9673</v>
-      </c>
-      <c r="G115" t="n">
-        <v>12.40166666666665</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J115" t="n">
-        <v>5.699999999999996</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-60.00000000000014</v>
-      </c>
-      <c r="L115" t="n">
-        <v>12.16000000000001</v>
-      </c>
-      <c r="M115" t="n">
-        <v>12.23999999999998</v>
-      </c>
-      <c r="N115" t="n">
-        <v>12.30333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>12</v>
-      </c>
-      <c r="C116" t="n">
-        <v>12</v>
-      </c>
-      <c r="D116" t="n">
-        <v>12</v>
-      </c>
-      <c r="E116" t="n">
-        <v>12</v>
-      </c>
-      <c r="F116" t="n">
-        <v>11080.3361</v>
-      </c>
-      <c r="G116" t="n">
-        <v>12.39333333333332</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J116" t="n">
-        <v>5.699999999999996</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-60.00000000000014</v>
-      </c>
-      <c r="L116" t="n">
-        <v>12.13000000000001</v>
-      </c>
-      <c r="M116" t="n">
-        <v>12.21999999999999</v>
-      </c>
-      <c r="N116" t="n">
-        <v>12.28666666666666</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C117" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D117" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E117" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F117" t="n">
-        <v>10988.7603</v>
-      </c>
-      <c r="G117" t="n">
-        <v>12.38666666666665</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J117" t="n">
-        <v>5.799999999999995</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-33.33333333333353</v>
-      </c>
-      <c r="L117" t="n">
-        <v>12.11000000000001</v>
-      </c>
-      <c r="M117" t="n">
-        <v>12.20499999999999</v>
-      </c>
-      <c r="N117" t="n">
-        <v>12.27333333333333</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>12</v>
-      </c>
-      <c r="C118" t="n">
-        <v>12</v>
-      </c>
-      <c r="D118" t="n">
-        <v>12</v>
-      </c>
-      <c r="E118" t="n">
-        <v>12</v>
-      </c>
-      <c r="F118" t="n">
-        <v>9464.5777</v>
-      </c>
-      <c r="G118" t="n">
-        <v>12.37999999999999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J118" t="n">
-        <v>5.899999999999995</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-42.857142857143</v>
-      </c>
-      <c r="L118" t="n">
-        <v>12.08000000000001</v>
-      </c>
-      <c r="M118" t="n">
-        <v>12.18999999999998</v>
-      </c>
-      <c r="N118" t="n">
-        <v>12.25666666666666</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C119" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D119" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E119" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F119" t="n">
-        <v>22980</v>
-      </c>
-      <c r="G119" t="n">
-        <v>12.37333333333332</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J119" t="n">
-        <v>5.999999999999995</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L119" t="n">
-        <v>12.06000000000001</v>
-      </c>
-      <c r="M119" t="n">
-        <v>12.17999999999998</v>
-      </c>
-      <c r="N119" t="n">
-        <v>12.24666666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C120" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D120" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E120" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F120" t="n">
-        <v>457140.7438</v>
-      </c>
-      <c r="G120" t="n">
-        <v>12.36833333333332</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J120" t="n">
-        <v>5.999999999999995</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L120" t="n">
-        <v>12.05000000000001</v>
-      </c>
-      <c r="M120" t="n">
-        <v>12.16999999999998</v>
-      </c>
-      <c r="N120" t="n">
-        <v>12.23666666666667</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-21 BackTest LBA.xlsx
+++ b/BackTest/2019-10-21 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E2" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F2" t="n">
-        <v>18189</v>
+        <v>62540</v>
       </c>
       <c r="G2" t="n">
-        <v>12.62</v>
+        <v>51246.46334380163</v>
       </c>
       <c r="H2" t="n">
-        <v>12.58166666666667</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C3" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D3" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E3" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F3" t="n">
-        <v>83511.4841</v>
+        <v>83642.4529</v>
       </c>
       <c r="G3" t="n">
-        <v>12.6</v>
+        <v>51246.46334380163</v>
       </c>
       <c r="H3" t="n">
-        <v>12.58666666666667</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D4" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E4" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F4" t="n">
-        <v>78416</v>
+        <v>6954.3307</v>
       </c>
       <c r="G4" t="n">
-        <v>12.59333333333333</v>
+        <v>51246.46334380163</v>
       </c>
       <c r="H4" t="n">
-        <v>12.59333333333333</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D5" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="E5" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F5" t="n">
-        <v>160165.0793650794</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>12.58</v>
+        <v>51346.46334380163</v>
       </c>
       <c r="H5" t="n">
-        <v>12.59833333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C6" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D6" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E6" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F6" t="n">
-        <v>23</v>
+        <v>178349.7366</v>
       </c>
       <c r="G6" t="n">
-        <v>12.56</v>
+        <v>-127003.2732561984</v>
       </c>
       <c r="H6" t="n">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C7" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D7" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E7" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F7" t="n">
-        <v>84806.4814</v>
+        <v>15383.141</v>
       </c>
       <c r="G7" t="n">
-        <v>12.54</v>
+        <v>-127003.2732561984</v>
       </c>
       <c r="H7" t="n">
-        <v>12.60166666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C8" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D8" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E8" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F8" t="n">
-        <v>39248.0801</v>
+        <v>194064.0885</v>
       </c>
       <c r="G8" t="n">
-        <v>12.53333333333333</v>
+        <v>-321067.3617561984</v>
       </c>
       <c r="H8" t="n">
-        <v>12.60166666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -707,33 +681,30 @@
         <v>12.5</v>
       </c>
       <c r="C9" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="D9" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="E9" t="n">
         <v>12.5</v>
       </c>
       <c r="F9" t="n">
-        <v>136939</v>
+        <v>63831.6494</v>
       </c>
       <c r="G9" t="n">
-        <v>12.55333333333333</v>
+        <v>-321067.3617561984</v>
       </c>
       <c r="H9" t="n">
-        <v>12.60833333333333</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="C10" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D10" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="E10" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="F10" t="n">
-        <v>13168.1889</v>
+        <v>1547.9495</v>
       </c>
       <c r="G10" t="n">
-        <v>12.56666666666666</v>
+        <v>-321067.3617561984</v>
       </c>
       <c r="H10" t="n">
-        <v>12.61166666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -792,24 +760,21 @@
         <v>12.6</v>
       </c>
       <c r="F11" t="n">
-        <v>1131.2615</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>12.57333333333333</v>
+        <v>-320967.3617561984</v>
       </c>
       <c r="H11" t="n">
-        <v>12.61666666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C12" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D12" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E12" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F12" t="n">
-        <v>13164.5647</v>
+        <v>47701.7253</v>
       </c>
       <c r="G12" t="n">
-        <v>12.57333333333333</v>
+        <v>-368669.0870561984</v>
       </c>
       <c r="H12" t="n">
-        <v>12.62</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C13" t="n">
         <v>12.5</v>
@@ -865,27 +827,24 @@
         <v>12.5</v>
       </c>
       <c r="E13" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F13" t="n">
-        <v>1131.2615</v>
+        <v>63998.3343</v>
       </c>
       <c r="G13" t="n">
-        <v>12.56666666666666</v>
+        <v>-368669.0870561984</v>
       </c>
       <c r="H13" t="n">
-        <v>12.62</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -906,24 +865,21 @@
         <v>12.5</v>
       </c>
       <c r="F14" t="n">
-        <v>40000</v>
+        <v>19999.4807</v>
       </c>
       <c r="G14" t="n">
-        <v>12.56</v>
+        <v>-368669.0870561984</v>
       </c>
       <c r="H14" t="n">
-        <v>12.62</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -935,33 +891,30 @@
         <v>12.5</v>
       </c>
       <c r="C15" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D15" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E15" t="n">
         <v>12.5</v>
       </c>
       <c r="F15" t="n">
-        <v>476</v>
+        <v>228588.2135</v>
       </c>
       <c r="G15" t="n">
-        <v>12.56</v>
+        <v>-140080.8735561984</v>
       </c>
       <c r="H15" t="n">
-        <v>12.62166666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C16" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="D16" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E16" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F16" t="n">
-        <v>6828.1227</v>
+        <v>52204.18</v>
       </c>
       <c r="G16" t="n">
-        <v>12.55333333333333</v>
+        <v>-87876.69355619838</v>
       </c>
       <c r="H16" t="n">
-        <v>12.62333333333334</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="C17" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="D17" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="E17" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="F17" t="n">
-        <v>12.7419</v>
+        <v>415</v>
       </c>
       <c r="G17" t="n">
-        <v>12.54</v>
+        <v>-87876.69355619838</v>
       </c>
       <c r="H17" t="n">
-        <v>12.62166666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C18" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D18" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E18" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F18" t="n">
-        <v>25.2</v>
+        <v>16458.053</v>
       </c>
       <c r="G18" t="n">
-        <v>12.54</v>
+        <v>-104334.7465561984</v>
       </c>
       <c r="H18" t="n">
-        <v>12.62166666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="C19" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="D19" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E19" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="F19" t="n">
-        <v>16757</v>
+        <v>118386.3706</v>
       </c>
       <c r="G19" t="n">
-        <v>12.53333333333333</v>
+        <v>14051.62404380161</v>
       </c>
       <c r="H19" t="n">
-        <v>12.62</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="C20" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="D20" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E20" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="F20" t="n">
-        <v>1643.892</v>
+        <v>77873.39659999999</v>
       </c>
       <c r="G20" t="n">
-        <v>12.52666666666667</v>
+        <v>14051.62404380161</v>
       </c>
       <c r="H20" t="n">
-        <v>12.615</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="C21" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D21" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E21" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F21" t="n">
-        <v>28000</v>
+        <v>147136.3706</v>
       </c>
       <c r="G21" t="n">
-        <v>12.52666666666667</v>
+        <v>-133084.7465561984</v>
       </c>
       <c r="H21" t="n">
-        <v>12.61</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="C22" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D22" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="E22" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F22" t="n">
-        <v>103464.5998</v>
+        <v>1130000</v>
       </c>
       <c r="G22" t="n">
-        <v>12.52666666666667</v>
+        <v>-1263084.746556198</v>
       </c>
       <c r="H22" t="n">
-        <v>12.605</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C23" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D23" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E23" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F23" t="n">
-        <v>28000</v>
+        <v>12800</v>
       </c>
       <c r="G23" t="n">
-        <v>12.52</v>
+        <v>-1263084.746556198</v>
       </c>
       <c r="H23" t="n">
-        <v>12.59833333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C24" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D24" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E24" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F24" t="n">
-        <v>72174.6609</v>
+        <v>49113.3966</v>
       </c>
       <c r="G24" t="n">
-        <v>12.49333333333333</v>
+        <v>-1263084.746556198</v>
       </c>
       <c r="H24" t="n">
-        <v>12.59333333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C25" t="n">
         <v>12.5</v>
@@ -1321,27 +1247,24 @@
         <v>12.5</v>
       </c>
       <c r="E25" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F25" t="n">
-        <v>69909.61960000001</v>
+        <v>18000</v>
       </c>
       <c r="G25" t="n">
-        <v>12.48</v>
+        <v>-1263084.746556198</v>
       </c>
       <c r="H25" t="n">
-        <v>12.59166666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C26" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D26" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E26" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F26" t="n">
-        <v>89837.60950000001</v>
+        <v>40000</v>
       </c>
       <c r="G26" t="n">
-        <v>12.46666666666667</v>
+        <v>-1223084.746556198</v>
       </c>
       <c r="H26" t="n">
-        <v>12.58666666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="C27" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="D27" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="E27" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="F27" t="n">
-        <v>158767.1667</v>
+        <v>35209.3791</v>
       </c>
       <c r="G27" t="n">
-        <v>12.44</v>
+        <v>-1223084.746556198</v>
       </c>
       <c r="H27" t="n">
-        <v>12.57833333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C28" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D28" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E28" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F28" t="n">
-        <v>246</v>
+        <v>7814.8553</v>
       </c>
       <c r="G28" t="n">
-        <v>12.43333333333334</v>
+        <v>-1223084.746556198</v>
       </c>
       <c r="H28" t="n">
-        <v>12.57166666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C29" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D29" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E29" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F29" t="n">
-        <v>19061.4774</v>
+        <v>182672.2036</v>
       </c>
       <c r="G29" t="n">
-        <v>12.42666666666667</v>
+        <v>-1405756.950156198</v>
       </c>
       <c r="H29" t="n">
-        <v>12.565</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C30" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D30" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E30" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F30" t="n">
-        <v>10320.0806</v>
+        <v>68250</v>
       </c>
       <c r="G30" t="n">
-        <v>12.42</v>
+        <v>-1337506.950156198</v>
       </c>
       <c r="H30" t="n">
-        <v>12.55833333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C31" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D31" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E31" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F31" t="n">
-        <v>1281.7454</v>
+        <v>18189</v>
       </c>
       <c r="G31" t="n">
-        <v>12.41333333333334</v>
+        <v>-1337506.950156198</v>
       </c>
       <c r="H31" t="n">
-        <v>12.55166666666667</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C32" t="n">
         <v>12.5</v>
@@ -1587,27 +1492,24 @@
         <v>12.5</v>
       </c>
       <c r="E32" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="F32" t="n">
-        <v>970640.0068</v>
+        <v>83511.4841</v>
       </c>
       <c r="G32" t="n">
-        <v>12.42</v>
+        <v>-1421018.434256198</v>
       </c>
       <c r="H32" t="n">
-        <v>12.54833333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C33" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="D33" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="E33" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="F33" t="n">
-        <v>268119.5191</v>
+        <v>78416</v>
       </c>
       <c r="G33" t="n">
-        <v>12.40666666666667</v>
+        <v>-1342602.434256198</v>
       </c>
       <c r="H33" t="n">
-        <v>12.54166666666666</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C34" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="D34" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="E34" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F34" t="n">
-        <v>32800</v>
+        <v>160165.0793650794</v>
       </c>
       <c r="G34" t="n">
-        <v>12.39333333333334</v>
+        <v>-1342602.434256198</v>
       </c>
       <c r="H34" t="n">
-        <v>12.535</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C35" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="D35" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E35" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="F35" t="n">
-        <v>290295.0508</v>
+        <v>23</v>
       </c>
       <c r="G35" t="n">
-        <v>12.37333333333334</v>
+        <v>-1342625.434256198</v>
       </c>
       <c r="H35" t="n">
-        <v>12.52666666666666</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C36" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D36" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E36" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F36" t="n">
-        <v>217310</v>
+        <v>84806.4814</v>
       </c>
       <c r="G36" t="n">
-        <v>12.35333333333334</v>
+        <v>-1427431.915656198</v>
       </c>
       <c r="H36" t="n">
-        <v>12.51666666666666</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C37" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D37" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E37" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F37" t="n">
-        <v>29400</v>
+        <v>39248.0801</v>
       </c>
       <c r="G37" t="n">
-        <v>12.34666666666667</v>
+        <v>-1427431.915656198</v>
       </c>
       <c r="H37" t="n">
-        <v>12.51166666666666</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C38" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="D38" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="E38" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F38" t="n">
-        <v>28914.1052</v>
+        <v>136939</v>
       </c>
       <c r="G38" t="n">
-        <v>12.34666666666667</v>
+        <v>-1290492.915656198</v>
       </c>
       <c r="H38" t="n">
-        <v>12.50666666666666</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="C39" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="D39" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="E39" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="F39" t="n">
-        <v>99817.87549999999</v>
+        <v>13168.1889</v>
       </c>
       <c r="G39" t="n">
-        <v>12.34</v>
+        <v>-1303661.104556198</v>
       </c>
       <c r="H39" t="n">
-        <v>12.50333333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="C40" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="D40" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="E40" t="n">
-        <v>12.1</v>
+        <v>12.6</v>
       </c>
       <c r="F40" t="n">
-        <v>270512.6955</v>
+        <v>1131.2615</v>
       </c>
       <c r="G40" t="n">
-        <v>12.32</v>
+        <v>-1304792.366056198</v>
       </c>
       <c r="H40" t="n">
-        <v>12.49833333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="C41" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="D41" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="E41" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="F41" t="n">
-        <v>259200</v>
+        <v>13164.5647</v>
       </c>
       <c r="G41" t="n">
-        <v>12.31333333333334</v>
+        <v>-1304792.366056198</v>
       </c>
       <c r="H41" t="n">
-        <v>12.495</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C42" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D42" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E42" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F42" t="n">
-        <v>118973.6532</v>
+        <v>1131.2615</v>
       </c>
       <c r="G42" t="n">
-        <v>12.32</v>
+        <v>-1305923.627556198</v>
       </c>
       <c r="H42" t="n">
-        <v>12.48999999999999</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C43" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D43" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E43" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F43" t="n">
-        <v>23838.4552</v>
+        <v>40000</v>
       </c>
       <c r="G43" t="n">
-        <v>12.31333333333334</v>
+        <v>-1305923.627556198</v>
       </c>
       <c r="H43" t="n">
-        <v>12.48666666666666</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C44" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D44" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E44" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F44" t="n">
-        <v>528.2926</v>
+        <v>476</v>
       </c>
       <c r="G44" t="n">
-        <v>12.30666666666667</v>
+        <v>-1305923.627556198</v>
       </c>
       <c r="H44" t="n">
-        <v>12.48333333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C45" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D45" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E45" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F45" t="n">
-        <v>17571.7074</v>
+        <v>6828.1227</v>
       </c>
       <c r="G45" t="n">
-        <v>12.30000000000001</v>
+        <v>-1305923.627556198</v>
       </c>
       <c r="H45" t="n">
-        <v>12.47999999999999</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C46" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D46" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E46" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F46" t="n">
-        <v>9406.539699999999</v>
+        <v>12.7419</v>
       </c>
       <c r="G46" t="n">
-        <v>12.29333333333334</v>
+        <v>-1305936.369456198</v>
       </c>
       <c r="H46" t="n">
-        <v>12.47333333333332</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C47" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D47" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E47" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F47" t="n">
-        <v>5160</v>
+        <v>25.2</v>
       </c>
       <c r="G47" t="n">
-        <v>12.28000000000001</v>
+        <v>-1305911.169456198</v>
       </c>
       <c r="H47" t="n">
-        <v>12.46499999999999</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C48" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D48" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E48" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F48" t="n">
-        <v>23838.4552</v>
+        <v>16757</v>
       </c>
       <c r="G48" t="n">
-        <v>12.28666666666667</v>
+        <v>-1305911.169456198</v>
       </c>
       <c r="H48" t="n">
-        <v>12.45833333333332</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C49" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D49" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E49" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F49" t="n">
-        <v>38165.6855</v>
+        <v>1643.892</v>
       </c>
       <c r="G49" t="n">
-        <v>12.29333333333334</v>
+        <v>-1305911.169456198</v>
       </c>
       <c r="H49" t="n">
-        <v>12.45333333333332</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C50" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D50" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E50" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F50" t="n">
-        <v>248</v>
+        <v>28000</v>
       </c>
       <c r="G50" t="n">
-        <v>12.30666666666667</v>
+        <v>-1305911.169456198</v>
       </c>
       <c r="H50" t="n">
-        <v>12.44666666666666</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2312,24 +2160,21 @@
         <v>12.4</v>
       </c>
       <c r="F51" t="n">
-        <v>8070</v>
+        <v>103464.5998</v>
       </c>
       <c r="G51" t="n">
-        <v>12.32000000000001</v>
+        <v>-1409375.769256198</v>
       </c>
       <c r="H51" t="n">
-        <v>12.43999999999999</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C52" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D52" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E52" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F52" t="n">
-        <v>2500</v>
+        <v>28000</v>
       </c>
       <c r="G52" t="n">
-        <v>12.32666666666668</v>
+        <v>-1437375.769256198</v>
       </c>
       <c r="H52" t="n">
-        <v>12.43499999999999</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2388,24 +2230,21 @@
         <v>12.4</v>
       </c>
       <c r="F53" t="n">
-        <v>2790</v>
+        <v>72174.6609</v>
       </c>
       <c r="G53" t="n">
-        <v>12.33333333333334</v>
+        <v>-1365201.108356198</v>
       </c>
       <c r="H53" t="n">
-        <v>12.43333333333332</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2417,33 +2256,30 @@
         <v>12.4</v>
       </c>
       <c r="C54" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D54" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E54" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F54" t="n">
-        <v>2790</v>
+        <v>69909.61960000001</v>
       </c>
       <c r="G54" t="n">
-        <v>12.34000000000001</v>
+        <v>-1295291.488756198</v>
       </c>
       <c r="H54" t="n">
-        <v>12.43166666666665</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2464,24 +2300,21 @@
         <v>12.4</v>
       </c>
       <c r="F55" t="n">
-        <v>40000</v>
+        <v>89837.60950000001</v>
       </c>
       <c r="G55" t="n">
-        <v>12.35333333333334</v>
+        <v>-1385129.098256198</v>
       </c>
       <c r="H55" t="n">
-        <v>12.42999999999999</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C56" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D56" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E56" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F56" t="n">
-        <v>156</v>
+        <v>158767.1667</v>
       </c>
       <c r="G56" t="n">
-        <v>12.36000000000001</v>
+        <v>-1543896.264956198</v>
       </c>
       <c r="H56" t="n">
-        <v>12.42833333333332</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,33 +2361,30 @@
         <v>12.4</v>
       </c>
       <c r="C57" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D57" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E57" t="n">
         <v>12.4</v>
       </c>
       <c r="F57" t="n">
-        <v>40000</v>
+        <v>246</v>
       </c>
       <c r="G57" t="n">
-        <v>12.37333333333334</v>
+        <v>-1543650.264956198</v>
       </c>
       <c r="H57" t="n">
-        <v>12.42666666666665</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C58" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D58" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E58" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F58" t="n">
-        <v>40700.92</v>
+        <v>19061.4774</v>
       </c>
       <c r="G58" t="n">
-        <v>12.38666666666667</v>
+        <v>-1543650.264956198</v>
       </c>
       <c r="H58" t="n">
-        <v>12.42499999999999</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2616,24 +2440,21 @@
         <v>12.4</v>
       </c>
       <c r="F59" t="n">
-        <v>35012.7418</v>
+        <v>10320.0806</v>
       </c>
       <c r="G59" t="n">
-        <v>12.39333333333334</v>
+        <v>-1543650.264956198</v>
       </c>
       <c r="H59" t="n">
-        <v>12.42166666666665</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2645,33 +2466,30 @@
         <v>12.4</v>
       </c>
       <c r="C60" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D60" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E60" t="n">
         <v>12.4</v>
       </c>
       <c r="F60" t="n">
-        <v>17020.0629</v>
+        <v>1281.7454</v>
       </c>
       <c r="G60" t="n">
-        <v>12.40666666666667</v>
+        <v>-1543650.264956198</v>
       </c>
       <c r="H60" t="n">
-        <v>12.42166666666665</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2683,33 +2501,30 @@
         <v>12.4</v>
       </c>
       <c r="C61" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D61" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E61" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F61" t="n">
-        <v>21032.5992</v>
+        <v>970640.0068</v>
       </c>
       <c r="G61" t="n">
-        <v>12.41333333333334</v>
+        <v>-573010.2581561982</v>
       </c>
       <c r="H61" t="n">
-        <v>12.41833333333332</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C62" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D62" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E62" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F62" t="n">
-        <v>51529.5736</v>
+        <v>268119.5191</v>
       </c>
       <c r="G62" t="n">
-        <v>12.42000000000001</v>
+        <v>-841129.7772561982</v>
       </c>
       <c r="H62" t="n">
-        <v>12.41499999999998</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C63" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D63" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E63" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F63" t="n">
-        <v>251</v>
+        <v>32800</v>
       </c>
       <c r="G63" t="n">
-        <v>12.42000000000001</v>
+        <v>-841129.7772561982</v>
       </c>
       <c r="H63" t="n">
-        <v>12.41333333333332</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C64" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="D64" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E64" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F64" t="n">
-        <v>134655.8405</v>
+        <v>290295.0508</v>
       </c>
       <c r="G64" t="n">
-        <v>12.43333333333334</v>
+        <v>-1131424.828056198</v>
       </c>
       <c r="H64" t="n">
-        <v>12.41333333333332</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C65" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D65" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E65" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="F65" t="n">
-        <v>23552.4</v>
+        <v>217310</v>
       </c>
       <c r="G65" t="n">
-        <v>12.44</v>
+        <v>-1131424.828056198</v>
       </c>
       <c r="H65" t="n">
-        <v>12.41166666666665</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C66" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D66" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E66" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F66" t="n">
-        <v>17.12</v>
+        <v>29400</v>
       </c>
       <c r="G66" t="n">
-        <v>12.44666666666667</v>
+        <v>-1102024.828056198</v>
       </c>
       <c r="H66" t="n">
-        <v>12.41166666666665</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C67" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D67" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E67" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F67" t="n">
-        <v>7500</v>
+        <v>28914.1052</v>
       </c>
       <c r="G67" t="n">
-        <v>12.46</v>
+        <v>-1102024.828056198</v>
       </c>
       <c r="H67" t="n">
-        <v>12.41499999999998</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C68" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D68" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E68" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F68" t="n">
-        <v>78468.2285</v>
+        <v>99817.87549999999</v>
       </c>
       <c r="G68" t="n">
-        <v>12.47333333333333</v>
+        <v>-1102024.828056198</v>
       </c>
       <c r="H68" t="n">
-        <v>12.41833333333332</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="C69" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="D69" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="E69" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="F69" t="n">
-        <v>124300</v>
+        <v>270512.6955</v>
       </c>
       <c r="G69" t="n">
-        <v>12.48666666666667</v>
+        <v>-1372537.523556198</v>
       </c>
       <c r="H69" t="n">
-        <v>12.41499999999999</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="C70" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D70" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E70" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="F70" t="n">
-        <v>50000</v>
+        <v>259200</v>
       </c>
       <c r="G70" t="n">
-        <v>12.5</v>
+        <v>-1113337.523556198</v>
       </c>
       <c r="H70" t="n">
-        <v>12.41333333333332</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C71" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D71" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E71" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F71" t="n">
-        <v>159264.5615</v>
+        <v>118973.6532</v>
       </c>
       <c r="G71" t="n">
-        <v>12.51333333333333</v>
+        <v>-1113337.523556198</v>
       </c>
       <c r="H71" t="n">
-        <v>12.41333333333332</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C72" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D72" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E72" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F72" t="n">
-        <v>14649.2097</v>
+        <v>23838.4552</v>
       </c>
       <c r="G72" t="n">
-        <v>12.51333333333333</v>
+        <v>-1113337.523556198</v>
       </c>
       <c r="H72" t="n">
-        <v>12.41166666666665</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C73" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D73" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E73" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F73" t="n">
-        <v>13688</v>
+        <v>528.2926</v>
       </c>
       <c r="G73" t="n">
-        <v>12.51333333333333</v>
+        <v>-1113337.523556198</v>
       </c>
       <c r="H73" t="n">
-        <v>12.41166666666665</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C74" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D74" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E74" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F74" t="n">
-        <v>173934.6556</v>
+        <v>17571.7074</v>
       </c>
       <c r="G74" t="n">
-        <v>12.52666666666667</v>
+        <v>-1113337.523556198</v>
       </c>
       <c r="H74" t="n">
-        <v>12.41333333333332</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C75" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D75" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E75" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F75" t="n">
-        <v>107.6468</v>
+        <v>9406.539699999999</v>
       </c>
       <c r="G75" t="n">
-        <v>12.52</v>
+        <v>-1113337.523556198</v>
       </c>
       <c r="H75" t="n">
-        <v>12.41166666666665</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C76" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D76" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E76" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F76" t="n">
-        <v>21.04</v>
+        <v>5160</v>
       </c>
       <c r="G76" t="n">
-        <v>12.52666666666667</v>
+        <v>-1113337.523556198</v>
       </c>
       <c r="H76" t="n">
-        <v>12.41166666666665</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3300,24 +3070,21 @@
         <v>12.4</v>
       </c>
       <c r="F77" t="n">
-        <v>9975</v>
+        <v>23838.4552</v>
       </c>
       <c r="G77" t="n">
-        <v>12.52666666666667</v>
+        <v>-1089499.068356198</v>
       </c>
       <c r="H77" t="n">
-        <v>12.41166666666665</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C78" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D78" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="E78" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F78" t="n">
-        <v>127428</v>
+        <v>38165.6855</v>
       </c>
       <c r="G78" t="n">
-        <v>12.54</v>
+        <v>-1089499.068356198</v>
       </c>
       <c r="H78" t="n">
-        <v>12.41333333333332</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="C79" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D79" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="E79" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="F79" t="n">
-        <v>20000</v>
+        <v>248</v>
       </c>
       <c r="G79" t="n">
-        <v>12.54</v>
+        <v>-1089499.068356198</v>
       </c>
       <c r="H79" t="n">
-        <v>12.41499999999999</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3414,24 +3175,21 @@
         <v>12.4</v>
       </c>
       <c r="F80" t="n">
-        <v>3402.7456</v>
+        <v>8070</v>
       </c>
       <c r="G80" t="n">
-        <v>12.53333333333333</v>
+        <v>-1089499.068356198</v>
       </c>
       <c r="H80" t="n">
-        <v>12.41333333333332</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C81" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D81" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E81" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F81" t="n">
-        <v>22859.84</v>
+        <v>2500</v>
       </c>
       <c r="G81" t="n">
-        <v>12.53333333333333</v>
+        <v>-1089499.068356198</v>
       </c>
       <c r="H81" t="n">
-        <v>12.41333333333332</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C82" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D82" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E82" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F82" t="n">
-        <v>39999.9999</v>
+        <v>2790</v>
       </c>
       <c r="G82" t="n">
-        <v>12.52666666666667</v>
+        <v>-1089499.068356198</v>
       </c>
       <c r="H82" t="n">
-        <v>12.41499999999999</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C83" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D83" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E83" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F83" t="n">
-        <v>48895</v>
+        <v>2790</v>
       </c>
       <c r="G83" t="n">
-        <v>12.52</v>
+        <v>-1089499.068356198</v>
       </c>
       <c r="H83" t="n">
-        <v>12.41833333333332</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C84" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D84" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E84" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F84" t="n">
-        <v>322.5807</v>
+        <v>40000</v>
       </c>
       <c r="G84" t="n">
-        <v>12.51333333333333</v>
+        <v>-1089499.068356198</v>
       </c>
       <c r="H84" t="n">
-        <v>12.41999999999999</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3601,27 +3347,24 @@
         <v>12.4</v>
       </c>
       <c r="E85" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F85" t="n">
-        <v>168350.8906</v>
+        <v>156</v>
       </c>
       <c r="G85" t="n">
-        <v>12.5</v>
+        <v>-1089499.068356198</v>
       </c>
       <c r="H85" t="n">
-        <v>12.41833333333332</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C86" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D86" t="n">
         <v>12.5</v>
       </c>
       <c r="E86" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F86" t="n">
-        <v>46180</v>
+        <v>40000</v>
       </c>
       <c r="G86" t="n">
-        <v>12.48666666666667</v>
+        <v>-1049499.068356198</v>
       </c>
       <c r="H86" t="n">
-        <v>12.41833333333332</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,7 +3408,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C87" t="n">
         <v>12.5</v>
@@ -3677,27 +3417,24 @@
         <v>12.5</v>
       </c>
       <c r="E87" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F87" t="n">
-        <v>52655.6329</v>
+        <v>40700.92</v>
       </c>
       <c r="G87" t="n">
-        <v>12.48666666666667</v>
+        <v>-1049499.068356198</v>
       </c>
       <c r="H87" t="n">
-        <v>12.42333333333332</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C88" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D88" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E88" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F88" t="n">
-        <v>6429.8736</v>
+        <v>35012.7418</v>
       </c>
       <c r="G88" t="n">
-        <v>12.48666666666667</v>
+        <v>-1084511.810156198</v>
       </c>
       <c r="H88" t="n">
-        <v>12.42499999999999</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,7 +3478,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C89" t="n">
         <v>12.5</v>
@@ -3753,27 +3487,24 @@
         <v>12.5</v>
       </c>
       <c r="E89" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F89" t="n">
-        <v>4660</v>
+        <v>17020.0629</v>
       </c>
       <c r="G89" t="n">
-        <v>12.48</v>
+        <v>-1067491.747256198</v>
       </c>
       <c r="H89" t="n">
-        <v>12.42666666666665</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3794,24 +3525,21 @@
         <v>12.4</v>
       </c>
       <c r="F90" t="n">
-        <v>2500</v>
+        <v>21032.5992</v>
       </c>
       <c r="G90" t="n">
-        <v>12.48</v>
+        <v>-1088524.346456198</v>
       </c>
       <c r="H90" t="n">
-        <v>12.42666666666665</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C91" t="n">
         <v>12.4</v>
       </c>
       <c r="D91" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E91" t="n">
         <v>12.4</v>
       </c>
       <c r="F91" t="n">
-        <v>23000</v>
+        <v>51529.5736</v>
       </c>
       <c r="G91" t="n">
-        <v>12.47333333333333</v>
+        <v>-1088524.346456198</v>
       </c>
       <c r="H91" t="n">
-        <v>12.42666666666665</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3870,24 +3595,21 @@
         <v>12.4</v>
       </c>
       <c r="F92" t="n">
-        <v>139705.3184</v>
+        <v>251</v>
       </c>
       <c r="G92" t="n">
-        <v>12.47333333333333</v>
+        <v>-1088524.346456198</v>
       </c>
       <c r="H92" t="n">
-        <v>12.42499999999999</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3899,33 +3621,30 @@
         <v>12.4</v>
       </c>
       <c r="C93" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D93" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E93" t="n">
         <v>12.4</v>
       </c>
       <c r="F93" t="n">
-        <v>24.9574</v>
+        <v>134655.8405</v>
       </c>
       <c r="G93" t="n">
-        <v>12.46</v>
+        <v>-953868.5059561983</v>
       </c>
       <c r="H93" t="n">
-        <v>12.42666666666665</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C94" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D94" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E94" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F94" t="n">
-        <v>18426.0529</v>
+        <v>23552.4</v>
       </c>
       <c r="G94" t="n">
-        <v>12.44666666666667</v>
+        <v>-977420.9059561983</v>
       </c>
       <c r="H94" t="n">
-        <v>12.42833333333332</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C95" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D95" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E95" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F95" t="n">
-        <v>106160.4454</v>
+        <v>17.12</v>
       </c>
       <c r="G95" t="n">
-        <v>12.44666666666667</v>
+        <v>-977420.9059561983</v>
       </c>
       <c r="H95" t="n">
-        <v>12.43166666666665</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C96" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D96" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E96" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F96" t="n">
-        <v>5225.3251</v>
+        <v>7500</v>
       </c>
       <c r="G96" t="n">
-        <v>12.44</v>
+        <v>-969920.9059561983</v>
       </c>
       <c r="H96" t="n">
-        <v>12.43499999999998</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C97" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D97" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E97" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F97" t="n">
-        <v>5792.2481</v>
+        <v>78468.2285</v>
       </c>
       <c r="G97" t="n">
-        <v>12.43333333333334</v>
+        <v>-969920.9059561983</v>
       </c>
       <c r="H97" t="n">
-        <v>12.43666666666665</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C98" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D98" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E98" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F98" t="n">
-        <v>62500.2328</v>
+        <v>124300</v>
       </c>
       <c r="G98" t="n">
-        <v>12.42666666666667</v>
+        <v>-969920.9059561983</v>
       </c>
       <c r="H98" t="n">
-        <v>12.43833333333332</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3828,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="C99" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="D99" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="E99" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="F99" t="n">
-        <v>46873.6913</v>
+        <v>50000</v>
       </c>
       <c r="G99" t="n">
-        <v>12.41333333333334</v>
+        <v>-969920.9059561983</v>
       </c>
       <c r="H99" t="n">
-        <v>12.43833333333332</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,40 +3863,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C100" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="D100" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="E100" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F100" t="n">
-        <v>17370</v>
+        <v>159264.5615</v>
       </c>
       <c r="G100" t="n">
-        <v>12.40666666666667</v>
+        <v>-969920.9059561983</v>
       </c>
       <c r="H100" t="n">
-        <v>12.43999999999999</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L100" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4204,458 +3898,1477 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C101" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D101" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E101" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F101" t="n">
-        <v>17370</v>
+        <v>14649.2097</v>
       </c>
       <c r="G101" t="n">
-        <v>12.40000000000001</v>
+        <v>-984570.1156561984</v>
       </c>
       <c r="H101" t="n">
-        <v>12.43999999999999</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L101" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="M101" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C102" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F102" t="n">
+        <v>13688</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-984570.1156561984</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C103" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E103" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F103" t="n">
+        <v>173934.6556</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-810635.4600561983</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C104" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D104" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E104" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F104" t="n">
+        <v>107.6468</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-810743.1068561983</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C105" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E105" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F105" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-810722.0668561982</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C106" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D106" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E106" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>9975</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-820697.0668561982</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E107" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>127428</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-693269.0668561982</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C108" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D108" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E108" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F108" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-693269.0668561982</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C109" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D109" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E109" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3402.7456</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-696671.8124561983</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F110" t="n">
+        <v>22859.84</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-673811.9724561983</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>39999.9999</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-673811.9724561983</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>48895</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-673811.9724561983</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C113" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F113" t="n">
+        <v>322.5807</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-673811.9724561983</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C114" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D114" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E114" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>168350.8906</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-842162.8630561983</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C115" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>46180</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-842162.8630561983</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C116" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>52655.6329</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-789507.2301561984</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>6429.8736</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-789507.2301561984</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4660</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-789507.2301561984</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C119" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D119" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E119" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-792007.2301561984</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C120" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E120" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>23000</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-792007.2301561984</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C121" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E121" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>139705.3184</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-792007.2301561984</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C122" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D122" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E122" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F122" t="n">
+        <v>24.9574</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-792007.2301561984</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D123" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E123" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F123" t="n">
+        <v>18426.0529</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-792007.2301561984</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C124" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>106160.4454</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-792007.2301561984</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K124" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C125" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5225.3251</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-792007.2301561984</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L125" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C102" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D102" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E102" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F102" t="n">
-        <v>17370</v>
-      </c>
-      <c r="G102" t="n">
-        <v>12.38666666666667</v>
-      </c>
-      <c r="H102" t="n">
-        <v>12.43999999999999</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L102" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="M102" t="inlineStr">
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>5792.2481</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-792007.2301561984</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K126" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L126" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C103" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D103" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E103" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F103" t="n">
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C127" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D127" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>62500.2328</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-792007.2301561984</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K127" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C128" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D128" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E128" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>46873.6913</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-838880.9214561983</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K128" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C129" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E129" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>17370</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-838880.9214561983</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K129" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E130" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>17370</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-838880.9214561983</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K130" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C131" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E131" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>17370</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-838880.9214561983</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K131" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D132" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E132" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F132" t="n">
         <v>47760</v>
       </c>
-      <c r="G103" t="n">
-        <v>12.37333333333334</v>
-      </c>
-      <c r="H103" t="n">
-        <v>12.43999999999999</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L103" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="M103" t="inlineStr">
+      <c r="G132" t="n">
+        <v>-838880.9214561983</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K132" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="N103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C104" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D104" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E104" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F104" t="n">
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F133" t="n">
         <v>13020</v>
       </c>
-      <c r="G104" t="n">
-        <v>12.36000000000001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>12.43999999999999</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L104" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="M104" t="inlineStr">
+      <c r="G133" t="n">
+        <v>-838880.9214561983</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K133" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C105" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D105" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E105" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F105" t="n">
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C134" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E134" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F134" t="n">
         <v>4350</v>
       </c>
-      <c r="G105" t="n">
-        <v>12.35333333333334</v>
-      </c>
-      <c r="H105" t="n">
-        <v>12.43999999999999</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L105" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="M105" t="inlineStr">
+      <c r="G134" t="n">
+        <v>-838880.9214561983</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K134" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C106" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D106" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E106" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F106" t="n">
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C135" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D135" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E135" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F135" t="n">
         <v>4350</v>
       </c>
-      <c r="G106" t="n">
-        <v>12.34666666666667</v>
-      </c>
-      <c r="H106" t="n">
-        <v>12.43999999999999</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L106" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="M106" t="inlineStr">
+      <c r="G135" t="n">
+        <v>-838880.9214561983</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K135" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C107" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D107" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E107" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F107" t="n">
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C136" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D136" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E136" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F136" t="n">
         <v>365717.7805</v>
       </c>
-      <c r="G107" t="n">
-        <v>12.34000000000001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>12.43999999999999</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L107" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="M107" t="inlineStr">
+      <c r="G136" t="n">
+        <v>-838880.9214561983</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K136" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C108" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D108" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E108" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F108" t="n">
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C137" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D137" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E137" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F137" t="n">
         <v>34320</v>
       </c>
-      <c r="G108" t="n">
-        <v>12.33333333333334</v>
-      </c>
-      <c r="H108" t="n">
-        <v>12.43833333333332</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L108" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="M108" t="inlineStr">
+      <c r="G137" t="n">
+        <v>-838880.9214561983</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K137" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C109" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D109" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E109" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F109" t="n">
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F138" t="n">
         <v>17160</v>
       </c>
-      <c r="G109" t="n">
-        <v>12.32666666666668</v>
-      </c>
-      <c r="H109" t="n">
-        <v>12.43666666666665</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L109" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="M109" t="inlineStr">
+      <c r="G138" t="n">
+        <v>-838880.9214561983</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K138" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C110" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D110" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E110" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F110" t="n">
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E139" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F139" t="n">
         <v>17160</v>
       </c>
-      <c r="G110" t="n">
-        <v>12.32000000000001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>12.43499999999998</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L110" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="M110" t="inlineStr">
+      <c r="G139" t="n">
+        <v>-838880.9214561983</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K139" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N110" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-21 BackTest LBA.xlsx
+++ b/BackTest/2019-10-21 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -454,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -524,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -979,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1049,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3332,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3402,6 +3491,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3437,6 +3527,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3472,6 +3563,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3507,6 +3599,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3542,6 +3635,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3577,6 +3671,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3612,6 +3707,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3647,6 +3743,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3682,6 +3779,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3717,6 +3815,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3752,6 +3851,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3787,6 +3887,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3822,6 +3923,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3857,6 +3959,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3892,6 +3995,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3927,6 +4031,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3962,6 +4067,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3997,6 +4103,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4032,6 +4139,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4067,6 +4175,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4102,6 +4211,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4137,6 +4247,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4172,6 +4283,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4207,6 +4319,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4242,6 +4355,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4277,6 +4391,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4312,6 +4427,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4347,6 +4463,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4382,6 +4499,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4417,6 +4535,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4452,6 +4571,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4487,6 +4607,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4522,6 +4643,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4557,6 +4679,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4592,6 +4715,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4627,6 +4751,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4662,6 +4787,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4697,6 +4823,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4736,6 +4863,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4777,6 +4905,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4820,6 +4949,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4859,6 +4989,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4902,6 +5033,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4945,6 +5077,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4984,6 +5117,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5027,6 +5161,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5070,6 +5205,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5113,6 +5249,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5156,6 +5293,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5199,6 +5337,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5242,6 +5381,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5285,6 +5425,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5328,6 +5469,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5371,6 +5513,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-21 BackTest LBA.xlsx
+++ b/BackTest/2019-10-21 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:N168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.7</v>
+        <v>12.2</v>
       </c>
       <c r="C2" t="n">
-        <v>12.7</v>
+        <v>12.2</v>
       </c>
       <c r="D2" t="n">
-        <v>12.7</v>
+        <v>12.2</v>
       </c>
       <c r="E2" t="n">
-        <v>12.7</v>
+        <v>12.2</v>
       </c>
       <c r="F2" t="n">
-        <v>62540</v>
+        <v>26675.0848</v>
       </c>
       <c r="G2" t="n">
-        <v>51246.46334380163</v>
+        <v>280625.6034</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="C3" t="n">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="D3" t="n">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="E3" t="n">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="F3" t="n">
-        <v>83642.4529</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>51246.46334380163</v>
+        <v>280635.6034</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7</v>
+        <v>12.4</v>
       </c>
       <c r="D4" t="n">
-        <v>12.7</v>
+        <v>12.4</v>
       </c>
       <c r="E4" t="n">
-        <v>12.7</v>
+        <v>12.2</v>
       </c>
       <c r="F4" t="n">
-        <v>6954.3307</v>
+        <v>144576.4031438016</v>
       </c>
       <c r="G4" t="n">
-        <v>51246.46334380163</v>
+        <v>425212.0065438016</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.7</v>
+        <v>12.4</v>
       </c>
       <c r="C5" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="D5" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="E5" t="n">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>5515.2564</v>
       </c>
       <c r="G5" t="n">
-        <v>51346.46334380163</v>
+        <v>419696.7501438016</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="C6" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D6" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="E6" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="F6" t="n">
-        <v>178349.7366</v>
+        <v>8410</v>
       </c>
       <c r="G6" t="n">
-        <v>-127003.2732561984</v>
+        <v>428106.7501438016</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +646,38 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="C7" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D7" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="E7" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="F7" t="n">
-        <v>15383.141</v>
+        <v>2810</v>
       </c>
       <c r="G7" t="n">
-        <v>-127003.2732561984</v>
+        <v>428106.7501438016</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +688,38 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C8" t="n">
         <v>12.5</v>
       </c>
       <c r="D8" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E8" t="n">
         <v>12.5</v>
       </c>
       <c r="F8" t="n">
-        <v>194064.0885</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>-321067.3617561984</v>
+        <v>428116.7501438016</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -693,29 +733,35 @@
         <v>12.5</v>
       </c>
       <c r="C9" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D9" t="n">
         <v>12.5</v>
       </c>
       <c r="E9" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F9" t="n">
-        <v>63831.6494</v>
+        <v>140475.76</v>
       </c>
       <c r="G9" t="n">
-        <v>-321067.3617561984</v>
+        <v>287640.9901438016</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -729,19 +775,19 @@
         <v>12.5</v>
       </c>
       <c r="C10" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D10" t="n">
         <v>12.5</v>
       </c>
       <c r="E10" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F10" t="n">
-        <v>1547.9495</v>
+        <v>14485.7679</v>
       </c>
       <c r="G10" t="n">
-        <v>-321067.3617561984</v>
+        <v>302126.7580438016</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +796,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +814,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C11" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D11" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E11" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>-320967.3617561984</v>
+        <v>302148.7580438016</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +838,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -810,10 +868,10 @@
         <v>12.5</v>
       </c>
       <c r="F12" t="n">
-        <v>47701.7253</v>
+        <v>7590</v>
       </c>
       <c r="G12" t="n">
-        <v>-368669.0870561984</v>
+        <v>302148.7580438016</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +880,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -837,19 +901,19 @@
         <v>12.4</v>
       </c>
       <c r="C13" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D13" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E13" t="n">
         <v>12.4</v>
       </c>
       <c r="F13" t="n">
-        <v>63998.3343</v>
+        <v>321.8548</v>
       </c>
       <c r="G13" t="n">
-        <v>-368669.0870561984</v>
+        <v>301826.9032438016</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +922,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +940,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F14" t="n">
-        <v>19999.4807</v>
+        <v>1549</v>
       </c>
       <c r="G14" t="n">
-        <v>-368669.0870561984</v>
+        <v>301826.9032438016</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +964,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -909,19 +985,19 @@
         <v>12.5</v>
       </c>
       <c r="C15" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D15" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="E15" t="n">
         <v>12.5</v>
       </c>
       <c r="F15" t="n">
-        <v>228588.2135</v>
+        <v>60521.1836</v>
       </c>
       <c r="G15" t="n">
-        <v>-140080.8735561984</v>
+        <v>362348.0868438016</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +1006,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1024,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="C16" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="D16" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="E16" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="F16" t="n">
-        <v>52204.18</v>
+        <v>26852.509</v>
       </c>
       <c r="G16" t="n">
-        <v>-87876.69355619838</v>
+        <v>362348.0868438016</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1048,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1066,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C17" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="D17" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="E17" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F17" t="n">
-        <v>415</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>-87876.69355619838</v>
+        <v>362448.0868438016</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1017,29 +1111,35 @@
         <v>12.7</v>
       </c>
       <c r="C18" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D18" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E18" t="n">
         <v>12.7</v>
       </c>
       <c r="F18" t="n">
-        <v>16458.053</v>
+        <v>8209.237999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>-104334.7465561984</v>
+        <v>370657.3248438016</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,7 +1150,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C19" t="n">
         <v>12.8</v>
@@ -1059,23 +1159,29 @@
         <v>12.8</v>
       </c>
       <c r="E19" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F19" t="n">
-        <v>118386.3706</v>
+        <v>90560.6971</v>
       </c>
       <c r="G19" t="n">
-        <v>14051.62404380161</v>
+        <v>370657.3248438016</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,32 +1192,38 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C20" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D20" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E20" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F20" t="n">
-        <v>77873.39659999999</v>
+        <v>93619.4849</v>
       </c>
       <c r="G20" t="n">
-        <v>14051.62404380161</v>
+        <v>277037.8399438016</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1234,38 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C21" t="n">
         <v>12.7</v>
       </c>
       <c r="D21" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E21" t="n">
         <v>12.7</v>
       </c>
       <c r="F21" t="n">
-        <v>147136.3706</v>
+        <v>7334.2077</v>
       </c>
       <c r="G21" t="n">
-        <v>-133084.7465561984</v>
+        <v>277037.8399438016</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1161,29 +1279,35 @@
         <v>12.7</v>
       </c>
       <c r="C22" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D22" t="n">
         <v>12.7</v>
       </c>
       <c r="E22" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F22" t="n">
-        <v>1130000</v>
+        <v>13821.3041</v>
       </c>
       <c r="G22" t="n">
-        <v>-1263084.746556198</v>
+        <v>277037.8399438016</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1318,38 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C23" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D23" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E23" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F23" t="n">
-        <v>12800</v>
+        <v>125601.6425</v>
       </c>
       <c r="G23" t="n">
-        <v>-1263084.746556198</v>
+        <v>151436.1974438016</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,32 +1360,38 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C24" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D24" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E24" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F24" t="n">
-        <v>49113.3966</v>
+        <v>13415.9905</v>
       </c>
       <c r="G24" t="n">
-        <v>-1263084.746556198</v>
+        <v>164852.1879438016</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C25" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D25" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E25" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F25" t="n">
-        <v>18000</v>
+        <v>57485.6925</v>
       </c>
       <c r="G25" t="n">
-        <v>-1263084.746556198</v>
+        <v>164852.1879438016</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1426,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1444,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="C26" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D26" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="E26" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F26" t="n">
-        <v>40000</v>
+        <v>90</v>
       </c>
       <c r="G26" t="n">
-        <v>-1223084.746556198</v>
+        <v>164942.1879438016</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1468,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1486,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="C27" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D27" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="E27" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F27" t="n">
-        <v>35209.3791</v>
+        <v>510</v>
       </c>
       <c r="G27" t="n">
-        <v>-1223084.746556198</v>
+        <v>164942.1879438016</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1510,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,34 +1528,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="C28" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D28" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="E28" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F28" t="n">
-        <v>7814.8553</v>
+        <v>5300</v>
       </c>
       <c r="G28" t="n">
-        <v>-1223084.746556198</v>
+        <v>164942.1879438016</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>1.044180327868853</v>
       </c>
       <c r="N28" t="inlineStr"/>
     </row>
@@ -1410,28 +1570,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="C29" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="D29" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="E29" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="F29" t="n">
-        <v>182672.2036</v>
+        <v>1000</v>
       </c>
       <c r="G29" t="n">
-        <v>-1405756.950156198</v>
+        <v>164942.1879438016</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1606,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C30" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D30" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E30" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F30" t="n">
-        <v>68250</v>
+        <v>113695.7246</v>
       </c>
       <c r="G30" t="n">
-        <v>-1337506.950156198</v>
+        <v>51246.46334380163</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1642,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C31" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D31" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E31" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F31" t="n">
-        <v>18189</v>
+        <v>62540</v>
       </c>
       <c r="G31" t="n">
-        <v>-1337506.950156198</v>
+        <v>51246.46334380163</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1678,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C32" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D32" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E32" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F32" t="n">
-        <v>83511.4841</v>
+        <v>83642.4529</v>
       </c>
       <c r="G32" t="n">
-        <v>-1421018.434256198</v>
+        <v>51246.46334380163</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1714,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C33" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D33" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E33" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F33" t="n">
-        <v>78416</v>
+        <v>6954.3307</v>
       </c>
       <c r="G33" t="n">
-        <v>-1342602.434256198</v>
+        <v>51246.46334380163</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1750,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C34" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D34" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="E34" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F34" t="n">
-        <v>160165.0793650794</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>-1342602.434256198</v>
+        <v>51346.46334380163</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1786,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C35" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D35" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E35" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F35" t="n">
-        <v>23</v>
+        <v>178349.7366</v>
       </c>
       <c r="G35" t="n">
-        <v>-1342625.434256198</v>
+        <v>-127003.2732561984</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1822,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C36" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D36" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E36" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F36" t="n">
-        <v>84806.4814</v>
+        <v>15383.141</v>
       </c>
       <c r="G36" t="n">
-        <v>-1427431.915656198</v>
+        <v>-127003.2732561984</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1858,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C37" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D37" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E37" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F37" t="n">
-        <v>39248.0801</v>
+        <v>194064.0885</v>
       </c>
       <c r="G37" t="n">
-        <v>-1427431.915656198</v>
+        <v>-321067.3617561984</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1737,25 +1897,25 @@
         <v>12.5</v>
       </c>
       <c r="C38" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="D38" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="E38" t="n">
         <v>12.5</v>
       </c>
       <c r="F38" t="n">
-        <v>136939</v>
+        <v>63831.6494</v>
       </c>
       <c r="G38" t="n">
-        <v>-1290492.915656198</v>
+        <v>-321067.3617561984</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,28 +1930,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="C39" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D39" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="E39" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="F39" t="n">
-        <v>13168.1889</v>
+        <v>1547.9495</v>
       </c>
       <c r="G39" t="n">
-        <v>-1303661.104556198</v>
+        <v>-321067.3617561984</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1818,16 +1978,16 @@
         <v>12.6</v>
       </c>
       <c r="F40" t="n">
-        <v>1131.2615</v>
+        <v>100</v>
       </c>
       <c r="G40" t="n">
-        <v>-1304792.366056198</v>
+        <v>-320967.3617561984</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,28 +2002,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C41" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D41" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E41" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F41" t="n">
-        <v>13164.5647</v>
+        <v>47701.7253</v>
       </c>
       <c r="G41" t="n">
-        <v>-1304792.366056198</v>
+        <v>-368669.0870561984</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,7 +2038,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C42" t="n">
         <v>12.5</v>
@@ -1887,19 +2047,19 @@
         <v>12.5</v>
       </c>
       <c r="E42" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F42" t="n">
-        <v>1131.2615</v>
+        <v>63998.3343</v>
       </c>
       <c r="G42" t="n">
-        <v>-1305923.627556198</v>
+        <v>-368669.0870561984</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1926,10 +2086,10 @@
         <v>12.5</v>
       </c>
       <c r="F43" t="n">
-        <v>40000</v>
+        <v>19999.4807</v>
       </c>
       <c r="G43" t="n">
-        <v>-1305923.627556198</v>
+        <v>-368669.0870561984</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1953,19 +2113,19 @@
         <v>12.5</v>
       </c>
       <c r="C44" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D44" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E44" t="n">
         <v>12.5</v>
       </c>
       <c r="F44" t="n">
-        <v>476</v>
+        <v>228588.2135</v>
       </c>
       <c r="G44" t="n">
-        <v>-1305923.627556198</v>
+        <v>-140080.8735561984</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +2146,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C45" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="D45" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E45" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F45" t="n">
-        <v>6828.1227</v>
+        <v>52204.18</v>
       </c>
       <c r="G45" t="n">
-        <v>-1305923.627556198</v>
+        <v>-87876.69355619838</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,28 +2182,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="C46" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="D46" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="E46" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="F46" t="n">
-        <v>12.7419</v>
+        <v>415</v>
       </c>
       <c r="G46" t="n">
-        <v>-1305936.369456198</v>
+        <v>-87876.69355619838</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,28 +2218,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C47" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D47" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E47" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F47" t="n">
-        <v>25.2</v>
+        <v>16458.053</v>
       </c>
       <c r="G47" t="n">
-        <v>-1305911.169456198</v>
+        <v>-104334.7465561984</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2094,22 +2254,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="C48" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="D48" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E48" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="F48" t="n">
-        <v>16757</v>
+        <v>118386.3706</v>
       </c>
       <c r="G48" t="n">
-        <v>-1305911.169456198</v>
+        <v>14051.62404380161</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,28 +2290,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="C49" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="D49" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E49" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="F49" t="n">
-        <v>1643.892</v>
+        <v>77873.39659999999</v>
       </c>
       <c r="G49" t="n">
-        <v>-1305911.169456198</v>
+        <v>14051.62404380161</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,28 +2326,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="C50" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D50" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E50" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F50" t="n">
-        <v>28000</v>
+        <v>147136.3706</v>
       </c>
       <c r="G50" t="n">
-        <v>-1305911.169456198</v>
+        <v>-133084.7465561984</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,28 +2362,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="C51" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D51" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="E51" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F51" t="n">
-        <v>103464.5998</v>
+        <v>1130000</v>
       </c>
       <c r="G51" t="n">
-        <v>-1409375.769256198</v>
+        <v>-1263084.746556198</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,28 +2398,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C52" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D52" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E52" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F52" t="n">
-        <v>28000</v>
+        <v>12800</v>
       </c>
       <c r="G52" t="n">
-        <v>-1437375.769256198</v>
+        <v>-1263084.746556198</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2274,22 +2434,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C53" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D53" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E53" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F53" t="n">
-        <v>72174.6609</v>
+        <v>49113.3966</v>
       </c>
       <c r="G53" t="n">
-        <v>-1365201.108356198</v>
+        <v>-1263084.746556198</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,7 +2470,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C54" t="n">
         <v>12.5</v>
@@ -2319,13 +2479,13 @@
         <v>12.5</v>
       </c>
       <c r="E54" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F54" t="n">
-        <v>69909.61960000001</v>
+        <v>18000</v>
       </c>
       <c r="G54" t="n">
-        <v>-1295291.488756198</v>
+        <v>-1263084.746556198</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2506,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C55" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D55" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E55" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F55" t="n">
-        <v>89837.60950000001</v>
+        <v>40000</v>
       </c>
       <c r="G55" t="n">
-        <v>-1385129.098256198</v>
+        <v>-1223084.746556198</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2542,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="C56" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="D56" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="E56" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="F56" t="n">
-        <v>158767.1667</v>
+        <v>35209.3791</v>
       </c>
       <c r="G56" t="n">
-        <v>-1543896.264956198</v>
+        <v>-1223084.746556198</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2578,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C57" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D57" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E57" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F57" t="n">
-        <v>246</v>
+        <v>7814.8553</v>
       </c>
       <c r="G57" t="n">
-        <v>-1543650.264956198</v>
+        <v>-1223084.746556198</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2614,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C58" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D58" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E58" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F58" t="n">
-        <v>19061.4774</v>
+        <v>182672.2036</v>
       </c>
       <c r="G58" t="n">
-        <v>-1543650.264956198</v>
+        <v>-1405756.950156198</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2650,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C59" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D59" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E59" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F59" t="n">
-        <v>10320.0806</v>
+        <v>68250</v>
       </c>
       <c r="G59" t="n">
-        <v>-1543650.264956198</v>
+        <v>-1337506.950156198</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2686,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C60" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D60" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E60" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F60" t="n">
-        <v>1281.7454</v>
+        <v>18189</v>
       </c>
       <c r="G60" t="n">
-        <v>-1543650.264956198</v>
+        <v>-1337506.950156198</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,7 +2722,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C61" t="n">
         <v>12.5</v>
@@ -2571,13 +2731,13 @@
         <v>12.5</v>
       </c>
       <c r="E61" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="F61" t="n">
-        <v>970640.0068</v>
+        <v>83511.4841</v>
       </c>
       <c r="G61" t="n">
-        <v>-573010.2581561982</v>
+        <v>-1421018.434256198</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2758,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C62" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="D62" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="E62" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="F62" t="n">
-        <v>268119.5191</v>
+        <v>78416</v>
       </c>
       <c r="G62" t="n">
-        <v>-841129.7772561982</v>
+        <v>-1342602.434256198</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2794,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C63" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="D63" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="E63" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F63" t="n">
-        <v>32800</v>
+        <v>160165.0793650794</v>
       </c>
       <c r="G63" t="n">
-        <v>-841129.7772561982</v>
+        <v>-1342602.434256198</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2830,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C64" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="D64" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E64" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="F64" t="n">
-        <v>290295.0508</v>
+        <v>23</v>
       </c>
       <c r="G64" t="n">
-        <v>-1131424.828056198</v>
+        <v>-1342625.434256198</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2866,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C65" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D65" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E65" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F65" t="n">
-        <v>217310</v>
+        <v>84806.4814</v>
       </c>
       <c r="G65" t="n">
-        <v>-1131424.828056198</v>
+        <v>-1427431.915656198</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2902,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C66" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D66" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E66" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F66" t="n">
-        <v>29400</v>
+        <v>39248.0801</v>
       </c>
       <c r="G66" t="n">
-        <v>-1102024.828056198</v>
+        <v>-1427431.915656198</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2938,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C67" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="D67" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="E67" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F67" t="n">
-        <v>28914.1052</v>
+        <v>136939</v>
       </c>
       <c r="G67" t="n">
-        <v>-1102024.828056198</v>
+        <v>-1290492.915656198</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2974,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="C68" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="D68" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="E68" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="F68" t="n">
-        <v>99817.87549999999</v>
+        <v>13168.1889</v>
       </c>
       <c r="G68" t="n">
-        <v>-1102024.828056198</v>
+        <v>-1303661.104556198</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +3010,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="C69" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="D69" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="E69" t="n">
-        <v>12.1</v>
+        <v>12.6</v>
       </c>
       <c r="F69" t="n">
-        <v>270512.6955</v>
+        <v>1131.2615</v>
       </c>
       <c r="G69" t="n">
-        <v>-1372537.523556198</v>
+        <v>-1304792.366056198</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +3046,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="C70" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="D70" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="E70" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="F70" t="n">
-        <v>259200</v>
+        <v>13164.5647</v>
       </c>
       <c r="G70" t="n">
-        <v>-1113337.523556198</v>
+        <v>-1304792.366056198</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +3082,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C71" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D71" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E71" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F71" t="n">
-        <v>118973.6532</v>
+        <v>1131.2615</v>
       </c>
       <c r="G71" t="n">
-        <v>-1113337.523556198</v>
+        <v>-1305923.627556198</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +3118,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C72" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D72" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E72" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F72" t="n">
-        <v>23838.4552</v>
+        <v>40000</v>
       </c>
       <c r="G72" t="n">
-        <v>-1113337.523556198</v>
+        <v>-1305923.627556198</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +3154,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C73" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D73" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E73" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F73" t="n">
-        <v>528.2926</v>
+        <v>476</v>
       </c>
       <c r="G73" t="n">
-        <v>-1113337.523556198</v>
+        <v>-1305923.627556198</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3190,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C74" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D74" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E74" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F74" t="n">
-        <v>17571.7074</v>
+        <v>6828.1227</v>
       </c>
       <c r="G74" t="n">
-        <v>-1113337.523556198</v>
+        <v>-1305923.627556198</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3226,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C75" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D75" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E75" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F75" t="n">
-        <v>9406.539699999999</v>
+        <v>12.7419</v>
       </c>
       <c r="G75" t="n">
-        <v>-1113337.523556198</v>
+        <v>-1305936.369456198</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3262,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C76" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D76" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E76" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F76" t="n">
-        <v>5160</v>
+        <v>25.2</v>
       </c>
       <c r="G76" t="n">
-        <v>-1113337.523556198</v>
+        <v>-1305911.169456198</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3298,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C77" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D77" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E77" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F77" t="n">
-        <v>23838.4552</v>
+        <v>16757</v>
       </c>
       <c r="G77" t="n">
-        <v>-1089499.068356198</v>
+        <v>-1305911.169456198</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3334,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C78" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D78" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E78" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F78" t="n">
-        <v>38165.6855</v>
+        <v>1643.892</v>
       </c>
       <c r="G78" t="n">
-        <v>-1089499.068356198</v>
+        <v>-1305911.169456198</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3370,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C79" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D79" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E79" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F79" t="n">
-        <v>248</v>
+        <v>28000</v>
       </c>
       <c r="G79" t="n">
-        <v>-1089499.068356198</v>
+        <v>-1305911.169456198</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3258,10 +3418,10 @@
         <v>12.4</v>
       </c>
       <c r="F80" t="n">
-        <v>8070</v>
+        <v>103464.5998</v>
       </c>
       <c r="G80" t="n">
-        <v>-1089499.068356198</v>
+        <v>-1409375.769256198</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3442,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C81" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D81" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E81" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F81" t="n">
-        <v>2500</v>
+        <v>28000</v>
       </c>
       <c r="G81" t="n">
-        <v>-1089499.068356198</v>
+        <v>-1437375.769256198</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3330,10 +3490,10 @@
         <v>12.4</v>
       </c>
       <c r="F82" t="n">
-        <v>2790</v>
+        <v>72174.6609</v>
       </c>
       <c r="G82" t="n">
-        <v>-1089499.068356198</v>
+        <v>-1365201.108356198</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3357,19 +3517,19 @@
         <v>12.4</v>
       </c>
       <c r="C83" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D83" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E83" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F83" t="n">
-        <v>2790</v>
+        <v>69909.61960000001</v>
       </c>
       <c r="G83" t="n">
-        <v>-1089499.068356198</v>
+        <v>-1295291.488756198</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3402,10 +3562,10 @@
         <v>12.4</v>
       </c>
       <c r="F84" t="n">
-        <v>40000</v>
+        <v>89837.60950000001</v>
       </c>
       <c r="G84" t="n">
-        <v>-1089499.068356198</v>
+        <v>-1385129.098256198</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3586,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C85" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D85" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E85" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F85" t="n">
-        <v>156</v>
+        <v>158767.1667</v>
       </c>
       <c r="G85" t="n">
-        <v>-1089499.068356198</v>
+        <v>-1543896.264956198</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3465,19 +3625,19 @@
         <v>12.4</v>
       </c>
       <c r="C86" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D86" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E86" t="n">
         <v>12.4</v>
       </c>
       <c r="F86" t="n">
-        <v>40000</v>
+        <v>246</v>
       </c>
       <c r="G86" t="n">
-        <v>-1049499.068356198</v>
+        <v>-1543650.264956198</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3658,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C87" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D87" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E87" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F87" t="n">
-        <v>40700.92</v>
+        <v>19061.4774</v>
       </c>
       <c r="G87" t="n">
-        <v>-1049499.068356198</v>
+        <v>-1543650.264956198</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3546,10 +3706,10 @@
         <v>12.4</v>
       </c>
       <c r="F88" t="n">
-        <v>35012.7418</v>
+        <v>10320.0806</v>
       </c>
       <c r="G88" t="n">
-        <v>-1084511.810156198</v>
+        <v>-1543650.264956198</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3573,19 +3733,19 @@
         <v>12.4</v>
       </c>
       <c r="C89" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D89" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E89" t="n">
         <v>12.4</v>
       </c>
       <c r="F89" t="n">
-        <v>17020.0629</v>
+        <v>1281.7454</v>
       </c>
       <c r="G89" t="n">
-        <v>-1067491.747256198</v>
+        <v>-1543650.264956198</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3609,19 +3769,19 @@
         <v>12.4</v>
       </c>
       <c r="C90" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D90" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E90" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F90" t="n">
-        <v>21032.5992</v>
+        <v>970640.0068</v>
       </c>
       <c r="G90" t="n">
-        <v>-1088524.346456198</v>
+        <v>-573010.2581561982</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3802,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C91" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D91" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E91" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F91" t="n">
-        <v>51529.5736</v>
+        <v>268119.5191</v>
       </c>
       <c r="G91" t="n">
-        <v>-1088524.346456198</v>
+        <v>-841129.7772561982</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3838,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C92" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D92" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E92" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F92" t="n">
-        <v>251</v>
+        <v>32800</v>
       </c>
       <c r="G92" t="n">
-        <v>-1088524.346456198</v>
+        <v>-841129.7772561982</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3874,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C93" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="D93" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E93" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F93" t="n">
-        <v>134655.8405</v>
+        <v>290295.0508</v>
       </c>
       <c r="G93" t="n">
-        <v>-953868.5059561983</v>
+        <v>-1131424.828056198</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3910,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C94" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D94" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E94" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="F94" t="n">
-        <v>23552.4</v>
+        <v>217310</v>
       </c>
       <c r="G94" t="n">
-        <v>-977420.9059561983</v>
+        <v>-1131424.828056198</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3946,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C95" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D95" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E95" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F95" t="n">
-        <v>17.12</v>
+        <v>29400</v>
       </c>
       <c r="G95" t="n">
-        <v>-977420.9059561983</v>
+        <v>-1102024.828056198</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3982,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C96" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D96" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E96" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F96" t="n">
-        <v>7500</v>
+        <v>28914.1052</v>
       </c>
       <c r="G96" t="n">
-        <v>-969920.9059561983</v>
+        <v>-1102024.828056198</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +4018,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C97" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D97" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E97" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F97" t="n">
-        <v>78468.2285</v>
+        <v>99817.87549999999</v>
       </c>
       <c r="G97" t="n">
-        <v>-969920.9059561983</v>
+        <v>-1102024.828056198</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +4054,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="C98" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="D98" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="E98" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="F98" t="n">
-        <v>124300</v>
+        <v>270512.6955</v>
       </c>
       <c r="G98" t="n">
-        <v>-969920.9059561983</v>
+        <v>-1372537.523556198</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +4090,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="C99" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D99" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E99" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="F99" t="n">
-        <v>50000</v>
+        <v>259200</v>
       </c>
       <c r="G99" t="n">
-        <v>-969920.9059561983</v>
+        <v>-1113337.523556198</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +4126,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C100" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D100" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E100" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F100" t="n">
-        <v>159264.5615</v>
+        <v>118973.6532</v>
       </c>
       <c r="G100" t="n">
-        <v>-969920.9059561983</v>
+        <v>-1113337.523556198</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4162,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C101" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D101" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E101" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F101" t="n">
-        <v>14649.2097</v>
+        <v>23838.4552</v>
       </c>
       <c r="G101" t="n">
-        <v>-984570.1156561984</v>
+        <v>-1113337.523556198</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4198,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C102" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D102" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E102" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F102" t="n">
-        <v>13688</v>
+        <v>528.2926</v>
       </c>
       <c r="G102" t="n">
-        <v>-984570.1156561984</v>
+        <v>-1113337.523556198</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4234,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C103" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D103" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E103" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F103" t="n">
-        <v>173934.6556</v>
+        <v>17571.7074</v>
       </c>
       <c r="G103" t="n">
-        <v>-810635.4600561983</v>
+        <v>-1113337.523556198</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4270,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C104" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D104" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E104" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F104" t="n">
-        <v>107.6468</v>
+        <v>9406.539699999999</v>
       </c>
       <c r="G104" t="n">
-        <v>-810743.1068561983</v>
+        <v>-1113337.523556198</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4306,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C105" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D105" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E105" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F105" t="n">
-        <v>21.04</v>
+        <v>5160</v>
       </c>
       <c r="G105" t="n">
-        <v>-810722.0668561982</v>
+        <v>-1113337.523556198</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4194,10 +4354,10 @@
         <v>12.4</v>
       </c>
       <c r="F106" t="n">
-        <v>9975</v>
+        <v>23838.4552</v>
       </c>
       <c r="G106" t="n">
-        <v>-820697.0668561982</v>
+        <v>-1089499.068356198</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,22 +4378,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C107" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D107" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="E107" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F107" t="n">
-        <v>127428</v>
+        <v>38165.6855</v>
       </c>
       <c r="G107" t="n">
-        <v>-693269.0668561982</v>
+        <v>-1089499.068356198</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4414,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="C108" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D108" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="E108" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="F108" t="n">
-        <v>20000</v>
+        <v>248</v>
       </c>
       <c r="G108" t="n">
-        <v>-693269.0668561982</v>
+        <v>-1089499.068356198</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4302,10 +4462,10 @@
         <v>12.4</v>
       </c>
       <c r="F109" t="n">
-        <v>3402.7456</v>
+        <v>8070</v>
       </c>
       <c r="G109" t="n">
-        <v>-696671.8124561983</v>
+        <v>-1089499.068356198</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4486,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C110" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D110" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E110" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F110" t="n">
-        <v>22859.84</v>
+        <v>2500</v>
       </c>
       <c r="G110" t="n">
-        <v>-673811.9724561983</v>
+        <v>-1089499.068356198</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4522,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C111" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D111" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E111" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F111" t="n">
-        <v>39999.9999</v>
+        <v>2790</v>
       </c>
       <c r="G111" t="n">
-        <v>-673811.9724561983</v>
+        <v>-1089499.068356198</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4558,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C112" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D112" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E112" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F112" t="n">
-        <v>48895</v>
+        <v>2790</v>
       </c>
       <c r="G112" t="n">
-        <v>-673811.9724561983</v>
+        <v>-1089499.068356198</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4594,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C113" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D113" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E113" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F113" t="n">
-        <v>322.5807</v>
+        <v>40000</v>
       </c>
       <c r="G113" t="n">
-        <v>-673811.9724561983</v>
+        <v>-1089499.068356198</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4479,13 +4639,13 @@
         <v>12.4</v>
       </c>
       <c r="E114" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F114" t="n">
-        <v>168350.8906</v>
+        <v>156</v>
       </c>
       <c r="G114" t="n">
-        <v>-842162.8630561983</v>
+        <v>-1089499.068356198</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +4666,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C115" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D115" t="n">
         <v>12.5</v>
       </c>
       <c r="E115" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F115" t="n">
-        <v>46180</v>
+        <v>40000</v>
       </c>
       <c r="G115" t="n">
-        <v>-842162.8630561983</v>
+        <v>-1049499.068356198</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,7 +4702,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C116" t="n">
         <v>12.5</v>
@@ -4551,13 +4711,13 @@
         <v>12.5</v>
       </c>
       <c r="E116" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F116" t="n">
-        <v>52655.6329</v>
+        <v>40700.92</v>
       </c>
       <c r="G116" t="n">
-        <v>-789507.2301561984</v>
+        <v>-1049499.068356198</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,22 +4738,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C117" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D117" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E117" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F117" t="n">
-        <v>6429.8736</v>
+        <v>35012.7418</v>
       </c>
       <c r="G117" t="n">
-        <v>-789507.2301561984</v>
+        <v>-1084511.810156198</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,7 +4774,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C118" t="n">
         <v>12.5</v>
@@ -4623,13 +4783,13 @@
         <v>12.5</v>
       </c>
       <c r="E118" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F118" t="n">
-        <v>4660</v>
+        <v>17020.0629</v>
       </c>
       <c r="G118" t="n">
-        <v>-789507.2301561984</v>
+        <v>-1067491.747256198</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4662,10 +4822,10 @@
         <v>12.4</v>
       </c>
       <c r="F119" t="n">
-        <v>2500</v>
+        <v>21032.5992</v>
       </c>
       <c r="G119" t="n">
-        <v>-792007.2301561984</v>
+        <v>-1088524.346456198</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,22 +4846,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C120" t="n">
         <v>12.4</v>
       </c>
       <c r="D120" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E120" t="n">
         <v>12.4</v>
       </c>
       <c r="F120" t="n">
-        <v>23000</v>
+        <v>51529.5736</v>
       </c>
       <c r="G120" t="n">
-        <v>-792007.2301561984</v>
+        <v>-1088524.346456198</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4734,10 +4894,10 @@
         <v>12.4</v>
       </c>
       <c r="F121" t="n">
-        <v>139705.3184</v>
+        <v>251</v>
       </c>
       <c r="G121" t="n">
-        <v>-792007.2301561984</v>
+        <v>-1088524.346456198</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4761,19 +4921,19 @@
         <v>12.4</v>
       </c>
       <c r="C122" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D122" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E122" t="n">
         <v>12.4</v>
       </c>
       <c r="F122" t="n">
-        <v>24.9574</v>
+        <v>134655.8405</v>
       </c>
       <c r="G122" t="n">
-        <v>-792007.2301561984</v>
+        <v>-953868.5059561983</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +4954,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C123" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D123" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E123" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F123" t="n">
-        <v>18426.0529</v>
+        <v>23552.4</v>
       </c>
       <c r="G123" t="n">
-        <v>-792007.2301561984</v>
+        <v>-977420.9059561983</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4830,35 +4990,31 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C124" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D124" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E124" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F124" t="n">
-        <v>106160.4454</v>
+        <v>17.12</v>
       </c>
       <c r="G124" t="n">
-        <v>-792007.2301561984</v>
+        <v>-977420.9059561983</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K124" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
@@ -4870,650 +5026,1652 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C125" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D125" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E125" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F125" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-969920.9059561983</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D126" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>78468.2285</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-969920.9059561983</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C127" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D127" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F127" t="n">
+        <v>124300</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-969920.9059561983</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C128" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E128" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F128" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-969920.9059561983</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>159264.5615</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-969920.9059561983</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>14649.2097</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-984570.1156561984</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>13688</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-984570.1156561984</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>173934.6556</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-810635.4600561983</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C133" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D133" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E133" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>107.6468</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-810743.1068561983</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E134" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-810722.0668561982</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C135" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>9975</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-820697.0668561982</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C136" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E136" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>127428</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-693269.0668561982</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C137" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E137" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F137" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-693269.0668561982</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C138" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D138" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E138" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3402.7456</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-696671.8124561983</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C139" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E139" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>22859.84</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-673811.9724561983</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>39999.9999</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-673811.9724561983</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>48895</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-673811.9724561983</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>322.5807</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-673811.9724561983</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C143" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D143" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E143" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F143" t="n">
+        <v>168350.8906</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-842162.8630561983</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D144" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>46180</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-842162.8630561983</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C145" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>52655.6329</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-789507.2301561984</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>6429.8736</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-789507.2301561984</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4660</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-789507.2301561984</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C148" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D148" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E148" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-792007.2301561984</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C149" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D149" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E149" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F149" t="n">
+        <v>23000</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-792007.2301561984</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C150" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D150" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E150" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F150" t="n">
+        <v>139705.3184</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-792007.2301561984</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C151" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D151" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E151" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F151" t="n">
+        <v>24.9574</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-792007.2301561984</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C152" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D152" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E152" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F152" t="n">
+        <v>18426.0529</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-792007.2301561984</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D153" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E153" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F153" t="n">
+        <v>106160.4454</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-792007.2301561984</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C154" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D154" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E154" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F154" t="n">
         <v>5225.3251</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G154" t="n">
         <v>-792007.2301561984</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C155" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D155" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E155" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5792.2481</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-792007.2301561984</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C156" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D156" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E156" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F156" t="n">
+        <v>62500.2328</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-792007.2301561984</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D157" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E157" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>46873.6913</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-838880.9214561983</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E158" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>17370</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-838880.9214561983</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C159" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D159" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E159" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>17370</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-838880.9214561983</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K159" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C160" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D160" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E160" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>17370</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-838880.9214561983</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K160" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L160" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C126" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D126" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E126" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F126" t="n">
-        <v>5792.2481</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-792007.2301561984</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K126" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C127" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D127" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E127" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F127" t="n">
-        <v>62500.2328</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-792007.2301561984</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K127" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C128" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D128" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E128" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F128" t="n">
-        <v>46873.6913</v>
-      </c>
-      <c r="G128" t="n">
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C161" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D161" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E161" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F161" t="n">
+        <v>47760</v>
+      </c>
+      <c r="G161" t="n">
         <v>-838880.9214561983</v>
       </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K128" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C129" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D129" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E129" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F129" t="n">
-        <v>17370</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-838880.9214561983</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K129" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C130" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D130" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E130" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F130" t="n">
-        <v>17370</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-838880.9214561983</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K130" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C131" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D131" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E131" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F131" t="n">
-        <v>17370</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-838880.9214561983</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K131" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C132" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D132" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E132" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F132" t="n">
-        <v>47760</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-838880.9214561983</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K132" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K161" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L161" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C133" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D133" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E133" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F133" t="n">
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E162" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F162" t="n">
         <v>13020</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G162" t="n">
         <v>-838880.9214561983</v>
       </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K133" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K162" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C134" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D134" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E134" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F134" t="n">
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C163" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D163" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E163" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F163" t="n">
         <v>4350</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G163" t="n">
         <v>-838880.9214561983</v>
       </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K134" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C135" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D135" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E135" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F135" t="n">
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C164" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D164" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E164" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F164" t="n">
         <v>4350</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G164" t="n">
         <v>-838880.9214561983</v>
       </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K135" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K164" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C136" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D136" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E136" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F136" t="n">
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C165" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D165" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E165" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F165" t="n">
         <v>365717.7805</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G165" t="n">
         <v>-838880.9214561983</v>
       </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K136" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K165" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C137" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D137" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E137" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F137" t="n">
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C166" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D166" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E166" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F166" t="n">
         <v>34320</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G166" t="n">
         <v>-838880.9214561983</v>
       </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K137" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C138" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D138" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E138" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F138" t="n">
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C167" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D167" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E167" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F167" t="n">
         <v>17160</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G167" t="n">
         <v>-838880.9214561983</v>
       </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K138" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C139" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D139" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E139" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F139" t="n">
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C168" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D168" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E168" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F168" t="n">
         <v>17160</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G168" t="n">
         <v>-838880.9214561983</v>
       </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K139" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-21 BackTest LBA.xlsx
+++ b/BackTest/2019-10-21 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N168"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>280625.6034</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>280635.6034</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J3" t="n">
         <v>12.2</v>
       </c>
-      <c r="K3" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>425212.0065438016</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="J4" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K4" t="n">
         <v>12.2</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,21 @@
         <v>419696.7501438016</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K5" t="n">
         <v>12.2</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +601,21 @@
         <v>428106.7501438016</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K6" t="n">
         <v>12.2</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -666,22 +642,19 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
         <v>12.2</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,22 +681,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>12.2</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -750,22 +720,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>12.2</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,22 +759,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>12.2</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -834,22 +798,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>12.2</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -876,22 +837,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
         <v>12.2</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -918,22 +876,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>12.2</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -960,22 +915,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>12.2</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1002,22 +954,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>12.2</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1044,22 +993,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
         <v>12.2</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1086,22 +1032,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
         <v>12.2</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1128,22 +1071,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>12.2</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1168,24 +1108,21 @@
         <v>370657.3248438016</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
         <v>12.2</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1.044180327868853</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1210,24 +1147,15 @@
         <v>277037.8399438016</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1252,24 +1180,15 @@
         <v>277037.8399438016</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1294,24 +1213,15 @@
         <v>277037.8399438016</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1338,22 +1248,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1378,24 +1279,15 @@
         <v>164852.1879438016</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1422,22 +1314,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1464,22 +1347,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1506,22 +1380,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1546,24 +1411,15 @@
         <v>164942.1879438016</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1.044180327868853</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1588,18 +1444,15 @@
         <v>164942.1879438016</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1624,18 +1477,15 @@
         <v>51246.46334380163</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1660,18 +1510,15 @@
         <v>51246.46334380163</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1696,18 +1543,15 @@
         <v>51246.46334380163</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1732,18 +1576,15 @@
         <v>51246.46334380163</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1768,18 +1609,15 @@
         <v>51346.46334380163</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1804,18 +1642,15 @@
         <v>-127003.2732561984</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1840,18 +1675,15 @@
         <v>-127003.2732561984</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1878,16 +1710,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1914,16 +1743,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1948,18 +1774,15 @@
         <v>-321067.3617561984</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1984,18 +1807,15 @@
         <v>-320967.3617561984</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2022,16 +1842,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2056,18 +1873,15 @@
         <v>-368669.0870561984</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2092,18 +1906,15 @@
         <v>-368669.0870561984</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2128,18 +1939,15 @@
         <v>-140080.8735561984</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2166,16 +1974,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2202,16 +2007,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2236,18 +2038,15 @@
         <v>-104334.7465561984</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2272,18 +2071,15 @@
         <v>14051.62404380161</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2310,16 +2106,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2344,18 +2137,15 @@
         <v>-133084.7465561984</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2380,18 +2170,15 @@
         <v>-1263084.746556198</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2418,16 +2205,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2454,16 +2238,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2490,16 +2271,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2526,16 +2304,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2562,16 +2337,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2598,16 +2370,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2634,16 +2403,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2670,16 +2436,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2706,16 +2469,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2742,16 +2502,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2778,16 +2535,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2814,16 +2568,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2850,16 +2601,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2886,16 +2634,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2922,16 +2667,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2958,16 +2700,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2994,16 +2733,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3030,16 +2766,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3066,16 +2799,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3102,16 +2832,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3138,16 +2865,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3174,16 +2898,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3210,16 +2931,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3246,16 +2964,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3282,16 +2997,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3318,16 +3030,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3354,16 +3063,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3390,16 +3096,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3426,16 +3129,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3462,16 +3162,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3498,16 +3195,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3534,16 +3228,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3570,16 +3261,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3606,16 +3294,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3642,16 +3327,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3678,16 +3360,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3714,16 +3393,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3750,16 +3426,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3786,16 +3459,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3822,16 +3492,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3858,16 +3525,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3894,16 +3558,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3930,16 +3591,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3966,16 +3624,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4002,16 +3657,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4038,16 +3690,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4074,16 +3723,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4110,16 +3756,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4146,16 +3789,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4182,16 +3822,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4218,16 +3855,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4254,16 +3888,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4290,16 +3921,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4326,16 +3954,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4362,16 +3987,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4398,16 +4020,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4434,16 +4053,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4470,16 +4086,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4506,16 +4119,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4542,16 +4152,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4578,16 +4185,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4614,16 +4218,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4650,16 +4251,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4686,16 +4284,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4722,16 +4317,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4758,16 +4350,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4794,16 +4383,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4830,16 +4416,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4866,16 +4449,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4902,16 +4482,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4938,16 +4515,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4974,16 +4548,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5010,16 +4581,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5046,16 +4614,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5082,16 +4647,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5118,16 +4680,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5154,16 +4713,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5190,16 +4746,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5226,16 +4779,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5262,16 +4812,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5298,16 +4845,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5334,16 +4878,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5370,16 +4911,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5406,16 +4944,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5442,16 +4977,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5478,16 +5010,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5512,18 +5041,15 @@
         <v>-696671.8124561983</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5550,16 +5076,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5586,16 +5109,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5622,16 +5142,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5658,16 +5175,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5694,16 +5208,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5730,16 +5241,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5766,16 +5274,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5802,16 +5307,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5838,16 +5340,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5874,16 +5373,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5910,16 +5406,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5946,16 +5439,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5982,16 +5472,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6018,16 +5505,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6054,16 +5538,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6090,16 +5571,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6126,16 +5604,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6162,16 +5637,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6198,16 +5670,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6234,16 +5703,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6268,22 +5734,15 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K159" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6308,26 +5767,15 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K160" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6352,26 +5800,15 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K161" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6396,26 +5833,15 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K162" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6442,22 +5868,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6482,26 +5899,15 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K164" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6526,26 +5932,15 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K165" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6572,22 +5967,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6614,22 +6000,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6656,24 +6033,15 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest LBA.xlsx
+++ b/BackTest/2019-10-21 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>280625.6034</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>280635.6034</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>425212.0065438016</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -565,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -604,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -643,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -682,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -721,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -760,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -799,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -838,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -877,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -916,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -955,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -994,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1033,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1072,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1108,19 +1012,13 @@
         <v>370657.3248438016</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>1.044180327868853</v>
+        <v>1</v>
       </c>
       <c r="M19" t="inlineStr"/>
     </row>
@@ -1147,7 +1045,7 @@
         <v>277037.8399438016</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1180,7 +1078,7 @@
         <v>277037.8399438016</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1213,7 +1111,7 @@
         <v>277037.8399438016</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1279,7 +1177,7 @@
         <v>164852.1879438016</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1411,7 +1309,7 @@
         <v>164942.1879438016</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1444,7 +1342,7 @@
         <v>164942.1879438016</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1477,7 +1375,7 @@
         <v>51246.46334380163</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1510,7 +1408,7 @@
         <v>51246.46334380163</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1543,7 +1441,7 @@
         <v>51246.46334380163</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1576,7 +1474,7 @@
         <v>51246.46334380163</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1609,7 +1507,7 @@
         <v>51346.46334380163</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1642,7 +1540,7 @@
         <v>-127003.2732561984</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1675,7 +1573,7 @@
         <v>-127003.2732561984</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1708,7 +1606,7 @@
         <v>-321067.3617561984</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1741,7 +1639,7 @@
         <v>-321067.3617561984</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1774,7 +1672,7 @@
         <v>-321067.3617561984</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1807,7 +1705,7 @@
         <v>-320967.3617561984</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1840,7 +1738,7 @@
         <v>-368669.0870561984</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1873,7 +1771,7 @@
         <v>-368669.0870561984</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1906,7 +1804,7 @@
         <v>-368669.0870561984</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1939,7 +1837,7 @@
         <v>-140080.8735561984</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1972,7 +1870,7 @@
         <v>-87876.69355619838</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2005,7 +1903,7 @@
         <v>-87876.69355619838</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2038,7 +1936,7 @@
         <v>-104334.7465561984</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2071,7 +1969,7 @@
         <v>14051.62404380161</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2137,7 +2035,7 @@
         <v>-133084.7465561984</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2170,7 +2068,7 @@
         <v>-1263084.746556198</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2533,7 +2431,7 @@
         <v>-1342602.434256198</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2566,7 +2464,7 @@
         <v>-1342602.434256198</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2599,7 +2497,7 @@
         <v>-1342625.434256198</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2632,7 +2530,7 @@
         <v>-1427431.915656198</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2665,7 +2563,7 @@
         <v>-1427431.915656198</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2698,7 +2596,7 @@
         <v>-1290492.915656198</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2731,7 +2629,7 @@
         <v>-1303661.104556198</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2764,7 +2662,7 @@
         <v>-1304792.366056198</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2797,7 +2695,7 @@
         <v>-1304792.366056198</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2830,7 +2728,7 @@
         <v>-1305923.627556198</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2863,7 +2761,7 @@
         <v>-1305923.627556198</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2896,7 +2794,7 @@
         <v>-1305923.627556198</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2929,7 +2827,7 @@
         <v>-1305923.627556198</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3985,10 +3883,14 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
@@ -4021,8 +3923,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4054,8 +3962,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4414,10 +4328,14 @@
         <v>-1088524.346456198</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J119" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
@@ -4447,11 +4365,19 @@
         <v>-1088524.346456198</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J120" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4483,8 +4409,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4516,8 +4448,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4549,8 +4487,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4582,8 +4526,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4615,8 +4565,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4648,8 +4604,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4681,8 +4643,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4714,8 +4682,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4747,8 +4721,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4780,8 +4760,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4813,8 +4799,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4846,8 +4838,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4879,8 +4877,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4912,8 +4916,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4945,8 +4955,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4978,8 +4994,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5011,8 +5033,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5041,11 +5069,17 @@
         <v>-696671.8124561983</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5077,8 +5111,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5110,8 +5150,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5143,8 +5189,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5176,8 +5228,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5209,8 +5267,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5242,8 +5306,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5272,11 +5342,19 @@
         <v>-789507.2301561984</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J145" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5308,8 +5386,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5341,8 +5425,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5374,8 +5464,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5404,11 +5500,19 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J149" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5437,11 +5541,19 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J150" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5470,11 +5582,19 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J151" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5503,11 +5623,19 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J152" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5536,11 +5664,19 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J153" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5572,8 +5708,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5605,8 +5747,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5638,8 +5786,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5671,8 +5825,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5704,8 +5864,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5737,8 +5903,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5770,8 +5942,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5803,8 +5981,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5836,8 +6020,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5869,8 +6059,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5902,8 +6098,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5935,8 +6137,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5968,8 +6176,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6001,8 +6215,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6034,14 +6254,20 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
       <c r="M168" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest LBA.xlsx
+++ b/BackTest/2019-10-21 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>428106.7501438016</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>428106.7501438016</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>428116.7501438016</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>287640.9901438016</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>302126.7580438016</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>302148.7580438016</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>302148.7580438016</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>301826.9032438016</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>301826.9032438016</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>362348.0868438016</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>362348.0868438016</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>362448.0868438016</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>370657.3248438016</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>370657.3248438016</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>51246.46334380163</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>51246.46334380163</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>51246.46334380163</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>51246.46334380163</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>51346.46334380163</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-127003.2732561984</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-127003.2732561984</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-321067.3617561984</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-321067.3617561984</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-321067.3617561984</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-320967.3617561984</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-368669.0870561984</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-368669.0870561984</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-87876.69355619838</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-87876.69355619838</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-104334.7465561984</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1342602.434256198</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1342602.434256198</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1342625.434256198</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1427431.915656198</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1427431.915656198</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1290492.915656198</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1303661.104556198</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1304792.366056198</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1304792.366056198</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1305923.627556198</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1305923.627556198</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1305923.627556198</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1305923.627556198</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3817,10 +3817,14 @@
         <v>-1113337.523556198</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
@@ -3853,8 +3857,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,15 +3893,17 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
         <v>12.3</v>
       </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3923,119 +3935,123 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K107" t="inlineStr">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C108" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D108" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E108" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>248</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-1089499.068356198</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J108" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C109" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D109" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E109" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>8070</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1089499.068356198</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C108" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D108" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E108" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F108" t="n">
-        <v>248</v>
-      </c>
-      <c r="G108" t="n">
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C110" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D110" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E110" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G110" t="n">
         <v>-1089499.068356198</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K108" t="inlineStr">
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C109" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D109" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E109" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F109" t="n">
-        <v>8070</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-1089499.068356198</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C110" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D110" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E110" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F110" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-1089499.068356198</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4328,14 +4344,10 @@
         <v>-1088524.346456198</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J119" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
@@ -4365,19 +4377,11 @@
         <v>-1088524.346456198</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J120" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4409,14 +4413,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4448,14 +4446,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4487,14 +4479,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4526,14 +4512,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4565,14 +4545,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4604,14 +4578,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4643,14 +4611,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4682,14 +4644,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4721,14 +4677,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4760,14 +4710,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4799,14 +4743,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4838,14 +4776,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4877,14 +4809,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4916,14 +4842,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4955,14 +4875,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4994,14 +4908,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5033,14 +4941,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5072,14 +4974,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5111,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5150,14 +5040,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5189,14 +5073,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5228,14 +5106,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5267,14 +5139,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5306,14 +5172,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5342,19 +5202,11 @@
         <v>-789507.2301561984</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J145" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5386,14 +5238,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5425,14 +5271,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5464,14 +5304,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5500,19 +5334,11 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J149" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5541,19 +5367,11 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J150" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5582,19 +5400,11 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J151" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5623,19 +5433,11 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J152" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5664,19 +5466,11 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J153" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5708,14 +5502,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5747,14 +5535,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5786,14 +5568,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5825,14 +5601,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5864,14 +5634,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5903,14 +5667,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5942,14 +5700,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5981,14 +5733,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6020,14 +5766,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6059,14 +5799,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6098,14 +5832,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6137,14 +5865,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6176,14 +5898,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6215,14 +5931,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6254,20 +5964,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
       <c r="M168" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest LBA.xlsx
+++ b/BackTest/2019-10-21 BackTest LBA.xlsx
@@ -583,7 +583,7 @@
         <v>428106.7501438016</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>428106.7501438016</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>428116.7501438016</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>287640.9901438016</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>302126.7580438016</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>302148.7580438016</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>302148.7580438016</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>301826.9032438016</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>301826.9032438016</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>362348.0868438016</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>362348.0868438016</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>362448.0868438016</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>370657.3248438016</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>370657.3248438016</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-368669.0870561984</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-140080.8735561984</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-104334.7465561984</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>14051.62404380161</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>14051.62404380161</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-133084.7465561984</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1263084.746556198</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -3553,10 +3553,14 @@
         <v>-1102024.828056198</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J96" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
@@ -3589,8 +3593,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3632,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3668,19 @@
         <v>-1113337.523556198</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +3712,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3751,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3790,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +3829,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,15 +3865,17 @@
         <v>-1113337.523556198</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>12.3</v>
       </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,15 +3904,17 @@
         <v>-1113337.523556198</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J105" t="n">
         <v>12.3</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L105" t="n">
@@ -3893,15 +3945,17 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J106" t="n">
         <v>12.3</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L106" t="n">
@@ -3932,11 +3986,19 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J107" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3965,15 +4027,17 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+        <v>12.3</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4002,15 +4066,17 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J109" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -4041,15 +4107,17 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J110" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4080,11 +4148,19 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J111" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4113,11 +4189,19 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J112" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4146,11 +4230,19 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J113" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4179,11 +4271,19 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J114" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4212,11 +4312,19 @@
         <v>-1049499.068356198</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J115" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4245,11 +4353,19 @@
         <v>-1049499.068356198</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J116" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4278,11 +4394,19 @@
         <v>-1084511.810156198</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J117" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4311,11 +4435,19 @@
         <v>-1067491.747256198</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J118" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4344,11 +4476,19 @@
         <v>-1088524.346456198</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J119" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4377,11 +4517,19 @@
         <v>-1088524.346456198</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J120" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4410,11 +4558,19 @@
         <v>-1088524.346456198</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J121" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4443,11 +4599,19 @@
         <v>-953868.5059561983</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J122" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4476,11 +4640,19 @@
         <v>-977420.9059561983</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J123" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4509,11 +4681,19 @@
         <v>-977420.9059561983</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J124" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4542,11 +4722,19 @@
         <v>-969920.9059561983</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J125" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4575,11 +4763,19 @@
         <v>-969920.9059561983</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J126" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4611,8 +4807,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4644,8 +4846,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4677,8 +4885,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4710,8 +4924,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4740,11 +4960,19 @@
         <v>-984570.1156561984</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J131" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4773,11 +5001,19 @@
         <v>-810635.4600561983</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J132" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4809,8 +5045,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4839,11 +5081,19 @@
         <v>-810722.0668561982</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J134" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4872,11 +5122,19 @@
         <v>-820697.0668561982</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J135" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4905,11 +5163,19 @@
         <v>-693269.0668561982</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J136" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4941,8 +5207,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4974,8 +5246,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5004,11 +5282,19 @@
         <v>-673811.9724561983</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J139" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5040,8 +5326,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5073,8 +5365,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5106,8 +5404,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5139,8 +5443,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5169,11 +5479,19 @@
         <v>-842162.8630561983</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J144" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5202,11 +5520,19 @@
         <v>-789507.2301561984</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J145" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5235,11 +5561,19 @@
         <v>-789507.2301561984</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J146" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5268,11 +5602,19 @@
         <v>-789507.2301561984</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J147" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5301,11 +5643,19 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J148" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5334,11 +5684,19 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J149" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5367,11 +5725,19 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J150" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5400,11 +5766,19 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J151" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5433,11 +5807,19 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J152" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5466,11 +5848,19 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J153" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5499,11 +5889,19 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J154" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5532,11 +5930,19 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J155" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5565,11 +5971,19 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J156" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5598,11 +6012,19 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J157" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5631,11 +6053,19 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J158" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5664,11 +6094,19 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J159" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5697,11 +6135,19 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J160" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5730,11 +6176,19 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J161" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5763,11 +6217,19 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J162" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5796,11 +6258,19 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J163" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5829,11 +6299,19 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J164" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5862,11 +6340,19 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J165" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5895,11 +6381,19 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J166" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5928,11 +6422,19 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J167" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5961,11 +6463,19 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J168" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-21 BackTest LBA.xlsx
+++ b/BackTest/2019-10-21 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M168"/>
+  <dimension ref="A1:L168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>26675.0848</v>
       </c>
       <c r="G2" t="n">
-        <v>280625.6034</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>280635.6034</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>144576.4031438016</v>
       </c>
       <c r="G4" t="n">
-        <v>425212.0065438016</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>12.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,23 @@
         <v>5515.2564</v>
       </c>
       <c r="G5" t="n">
-        <v>419696.7501438016</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>12.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +583,23 @@
         <v>8410</v>
       </c>
       <c r="G6" t="n">
-        <v>428106.7501438016</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>12.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +621,21 @@
         <v>2810</v>
       </c>
       <c r="G7" t="n">
-        <v>428106.7501438016</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +657,21 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>428116.7501438016</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +693,21 @@
         <v>140475.76</v>
       </c>
       <c r="G9" t="n">
-        <v>287640.9901438016</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +729,21 @@
         <v>14485.7679</v>
       </c>
       <c r="G10" t="n">
-        <v>302126.7580438016</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +765,21 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>302148.7580438016</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +801,21 @@
         <v>7590</v>
       </c>
       <c r="G12" t="n">
-        <v>302148.7580438016</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +837,21 @@
         <v>321.8548</v>
       </c>
       <c r="G13" t="n">
-        <v>301826.9032438016</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +873,21 @@
         <v>1549</v>
       </c>
       <c r="G14" t="n">
-        <v>301826.9032438016</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +909,21 @@
         <v>60521.1836</v>
       </c>
       <c r="G15" t="n">
-        <v>362348.0868438016</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +945,21 @@
         <v>26852.509</v>
       </c>
       <c r="G16" t="n">
-        <v>362348.0868438016</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +981,21 @@
         <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>362448.0868438016</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1017,21 @@
         <v>8209.237999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>370657.3248438016</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1053,21 @@
         <v>90560.6971</v>
       </c>
       <c r="G19" t="n">
-        <v>370657.3248438016</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1089,21 @@
         <v>93619.4849</v>
       </c>
       <c r="G20" t="n">
-        <v>277037.8399438016</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1125,21 @@
         <v>7334.2077</v>
       </c>
       <c r="G21" t="n">
-        <v>277037.8399438016</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1161,21 @@
         <v>13821.3041</v>
       </c>
       <c r="G22" t="n">
-        <v>277037.8399438016</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1197,21 @@
         <v>125601.6425</v>
       </c>
       <c r="G23" t="n">
-        <v>151436.1974438016</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1233,21 @@
         <v>13415.9905</v>
       </c>
       <c r="G24" t="n">
-        <v>164852.1879438016</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1269,21 @@
         <v>57485.6925</v>
       </c>
       <c r="G25" t="n">
-        <v>164852.1879438016</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1305,21 @@
         <v>90</v>
       </c>
       <c r="G26" t="n">
-        <v>164942.1879438016</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1341,21 @@
         <v>510</v>
       </c>
       <c r="G27" t="n">
-        <v>164942.1879438016</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1.044180327868853</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1377,15 @@
         <v>5300</v>
       </c>
       <c r="G28" t="n">
-        <v>164942.1879438016</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1407,15 @@
         <v>1000</v>
       </c>
       <c r="G29" t="n">
-        <v>164942.1879438016</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1437,15 @@
         <v>113695.7246</v>
       </c>
       <c r="G30" t="n">
-        <v>51246.46334380163</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1467,15 @@
         <v>62540</v>
       </c>
       <c r="G31" t="n">
-        <v>51246.46334380163</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1497,15 @@
         <v>83642.4529</v>
       </c>
       <c r="G32" t="n">
-        <v>51246.46334380163</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1527,15 @@
         <v>6954.3307</v>
       </c>
       <c r="G33" t="n">
-        <v>51246.46334380163</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1557,15 @@
         <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>51346.46334380163</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1587,15 @@
         <v>178349.7366</v>
       </c>
       <c r="G35" t="n">
-        <v>-127003.2732561984</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1617,15 @@
         <v>15383.141</v>
       </c>
       <c r="G36" t="n">
-        <v>-127003.2732561984</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1647,15 @@
         <v>194064.0885</v>
       </c>
       <c r="G37" t="n">
-        <v>-321067.3617561984</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1677,15 @@
         <v>63831.6494</v>
       </c>
       <c r="G38" t="n">
-        <v>-321067.3617561984</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1707,15 @@
         <v>1547.9495</v>
       </c>
       <c r="G39" t="n">
-        <v>-321067.3617561984</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1737,15 @@
         <v>100</v>
       </c>
       <c r="G40" t="n">
-        <v>-320967.3617561984</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1767,15 @@
         <v>47701.7253</v>
       </c>
       <c r="G41" t="n">
-        <v>-368669.0870561984</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1797,15 @@
         <v>63998.3343</v>
       </c>
       <c r="G42" t="n">
-        <v>-368669.0870561984</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1827,15 @@
         <v>19999.4807</v>
       </c>
       <c r="G43" t="n">
-        <v>-368669.0870561984</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1857,15 @@
         <v>228588.2135</v>
       </c>
       <c r="G44" t="n">
-        <v>-140080.8735561984</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1887,15 @@
         <v>52204.18</v>
       </c>
       <c r="G45" t="n">
-        <v>-87876.69355619838</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1917,15 @@
         <v>415</v>
       </c>
       <c r="G46" t="n">
-        <v>-87876.69355619838</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1947,15 @@
         <v>16458.053</v>
       </c>
       <c r="G47" t="n">
-        <v>-104334.7465561984</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1977,15 @@
         <v>118386.3706</v>
       </c>
       <c r="G48" t="n">
-        <v>14051.62404380161</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2007,15 @@
         <v>77873.39659999999</v>
       </c>
       <c r="G49" t="n">
-        <v>14051.62404380161</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2037,15 @@
         <v>147136.3706</v>
       </c>
       <c r="G50" t="n">
-        <v>-133084.7465561984</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2067,15 @@
         <v>1130000</v>
       </c>
       <c r="G51" t="n">
-        <v>-1263084.746556198</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2097,15 @@
         <v>12800</v>
       </c>
       <c r="G52" t="n">
-        <v>-1263084.746556198</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2127,15 @@
         <v>49113.3966</v>
       </c>
       <c r="G53" t="n">
-        <v>-1263084.746556198</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2157,15 @@
         <v>18000</v>
       </c>
       <c r="G54" t="n">
-        <v>-1263084.746556198</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2187,15 @@
         <v>40000</v>
       </c>
       <c r="G55" t="n">
-        <v>-1223084.746556198</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2217,15 @@
         <v>35209.3791</v>
       </c>
       <c r="G56" t="n">
-        <v>-1223084.746556198</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2247,15 @@
         <v>7814.8553</v>
       </c>
       <c r="G57" t="n">
-        <v>-1223084.746556198</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2277,15 @@
         <v>182672.2036</v>
       </c>
       <c r="G58" t="n">
-        <v>-1405756.950156198</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2307,15 @@
         <v>68250</v>
       </c>
       <c r="G59" t="n">
-        <v>-1337506.950156198</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2337,15 @@
         <v>18189</v>
       </c>
       <c r="G60" t="n">
-        <v>-1337506.950156198</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2367,15 @@
         <v>83511.4841</v>
       </c>
       <c r="G61" t="n">
-        <v>-1421018.434256198</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2397,15 @@
         <v>78416</v>
       </c>
       <c r="G62" t="n">
-        <v>-1342602.434256198</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2427,15 @@
         <v>160165.0793650794</v>
       </c>
       <c r="G63" t="n">
-        <v>-1342602.434256198</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2457,15 @@
         <v>23</v>
       </c>
       <c r="G64" t="n">
-        <v>-1342625.434256198</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2487,15 @@
         <v>84806.4814</v>
       </c>
       <c r="G65" t="n">
-        <v>-1427431.915656198</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2517,15 @@
         <v>39248.0801</v>
       </c>
       <c r="G66" t="n">
-        <v>-1427431.915656198</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2547,15 @@
         <v>136939</v>
       </c>
       <c r="G67" t="n">
-        <v>-1290492.915656198</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2577,15 @@
         <v>13168.1889</v>
       </c>
       <c r="G68" t="n">
-        <v>-1303661.104556198</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2607,15 @@
         <v>1131.2615</v>
       </c>
       <c r="G69" t="n">
-        <v>-1304792.366056198</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2637,15 @@
         <v>13164.5647</v>
       </c>
       <c r="G70" t="n">
-        <v>-1304792.366056198</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2667,15 @@
         <v>1131.2615</v>
       </c>
       <c r="G71" t="n">
-        <v>-1305923.627556198</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2697,15 @@
         <v>40000</v>
       </c>
       <c r="G72" t="n">
-        <v>-1305923.627556198</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2727,15 @@
         <v>476</v>
       </c>
       <c r="G73" t="n">
-        <v>-1305923.627556198</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2757,15 @@
         <v>6828.1227</v>
       </c>
       <c r="G74" t="n">
-        <v>-1305923.627556198</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2787,15 @@
         <v>12.7419</v>
       </c>
       <c r="G75" t="n">
-        <v>-1305936.369456198</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2817,15 @@
         <v>25.2</v>
       </c>
       <c r="G76" t="n">
-        <v>-1305911.169456198</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2847,15 @@
         <v>16757</v>
       </c>
       <c r="G77" t="n">
-        <v>-1305911.169456198</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2877,15 @@
         <v>1643.892</v>
       </c>
       <c r="G78" t="n">
-        <v>-1305911.169456198</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2907,15 @@
         <v>28000</v>
       </c>
       <c r="G79" t="n">
-        <v>-1305911.169456198</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2937,15 @@
         <v>103464.5998</v>
       </c>
       <c r="G80" t="n">
-        <v>-1409375.769256198</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2967,15 @@
         <v>28000</v>
       </c>
       <c r="G81" t="n">
-        <v>-1437375.769256198</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2997,15 @@
         <v>72174.6609</v>
       </c>
       <c r="G82" t="n">
-        <v>-1365201.108356198</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3027,15 @@
         <v>69909.61960000001</v>
       </c>
       <c r="G83" t="n">
-        <v>-1295291.488756198</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3057,15 @@
         <v>89837.60950000001</v>
       </c>
       <c r="G84" t="n">
-        <v>-1385129.098256198</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3087,15 @@
         <v>158767.1667</v>
       </c>
       <c r="G85" t="n">
-        <v>-1543896.264956198</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3117,15 @@
         <v>246</v>
       </c>
       <c r="G86" t="n">
-        <v>-1543650.264956198</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3147,15 @@
         <v>19061.4774</v>
       </c>
       <c r="G87" t="n">
-        <v>-1543650.264956198</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3177,15 @@
         <v>10320.0806</v>
       </c>
       <c r="G88" t="n">
-        <v>-1543650.264956198</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3207,15 @@
         <v>1281.7454</v>
       </c>
       <c r="G89" t="n">
-        <v>-1543650.264956198</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3237,15 @@
         <v>970640.0068</v>
       </c>
       <c r="G90" t="n">
-        <v>-573010.2581561982</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3267,15 @@
         <v>268119.5191</v>
       </c>
       <c r="G91" t="n">
-        <v>-841129.7772561982</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3297,15 @@
         <v>32800</v>
       </c>
       <c r="G92" t="n">
-        <v>-841129.7772561982</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3327,15 @@
         <v>290295.0508</v>
       </c>
       <c r="G93" t="n">
-        <v>-1131424.828056198</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3357,15 @@
         <v>217310</v>
       </c>
       <c r="G94" t="n">
-        <v>-1131424.828056198</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3387,15 @@
         <v>29400</v>
       </c>
       <c r="G95" t="n">
-        <v>-1102024.828056198</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,22 +3417,15 @@
         <v>28914.1052</v>
       </c>
       <c r="G96" t="n">
-        <v>-1102024.828056198</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J96" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3587,24 +3447,15 @@
         <v>99817.87549999999</v>
       </c>
       <c r="G97" t="n">
-        <v>-1102024.828056198</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3626,24 +3477,15 @@
         <v>270512.6955</v>
       </c>
       <c r="G98" t="n">
-        <v>-1372537.523556198</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3665,26 +3507,15 @@
         <v>259200</v>
       </c>
       <c r="G99" t="n">
-        <v>-1113337.523556198</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J99" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3706,24 +3537,15 @@
         <v>118973.6532</v>
       </c>
       <c r="G100" t="n">
-        <v>-1113337.523556198</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3745,24 +3567,15 @@
         <v>23838.4552</v>
       </c>
       <c r="G101" t="n">
-        <v>-1113337.523556198</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3784,24 +3597,15 @@
         <v>528.2926</v>
       </c>
       <c r="G102" t="n">
-        <v>-1113337.523556198</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3823,24 +3627,15 @@
         <v>17571.7074</v>
       </c>
       <c r="G103" t="n">
-        <v>-1113337.523556198</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3862,24 +3657,15 @@
         <v>9406.539699999999</v>
       </c>
       <c r="G104" t="n">
-        <v>-1113337.523556198</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3901,26 +3687,15 @@
         <v>5160</v>
       </c>
       <c r="G105" t="n">
-        <v>-1113337.523556198</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J105" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3942,26 +3717,15 @@
         <v>23838.4552</v>
       </c>
       <c r="G106" t="n">
-        <v>-1089499.068356198</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J106" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3983,26 +3747,15 @@
         <v>38165.6855</v>
       </c>
       <c r="G107" t="n">
-        <v>-1089499.068356198</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J107" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4024,24 +3777,15 @@
         <v>248</v>
       </c>
       <c r="G108" t="n">
-        <v>-1089499.068356198</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4063,26 +3807,15 @@
         <v>8070</v>
       </c>
       <c r="G109" t="n">
-        <v>-1089499.068356198</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J109" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4104,26 +3837,15 @@
         <v>2500</v>
       </c>
       <c r="G110" t="n">
-        <v>-1089499.068356198</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J110" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4145,26 +3867,15 @@
         <v>2790</v>
       </c>
       <c r="G111" t="n">
-        <v>-1089499.068356198</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J111" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4186,26 +3897,15 @@
         <v>2790</v>
       </c>
       <c r="G112" t="n">
-        <v>-1089499.068356198</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J112" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4227,26 +3927,15 @@
         <v>40000</v>
       </c>
       <c r="G113" t="n">
-        <v>-1089499.068356198</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J113" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4268,26 +3957,15 @@
         <v>156</v>
       </c>
       <c r="G114" t="n">
-        <v>-1089499.068356198</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J114" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4309,26 +3987,15 @@
         <v>40000</v>
       </c>
       <c r="G115" t="n">
-        <v>-1049499.068356198</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J115" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4350,26 +4017,15 @@
         <v>40700.92</v>
       </c>
       <c r="G116" t="n">
-        <v>-1049499.068356198</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J116" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4391,26 +4047,15 @@
         <v>35012.7418</v>
       </c>
       <c r="G117" t="n">
-        <v>-1084511.810156198</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J117" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4432,26 +4077,15 @@
         <v>17020.0629</v>
       </c>
       <c r="G118" t="n">
-        <v>-1067491.747256198</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J118" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4473,26 +4107,15 @@
         <v>21032.5992</v>
       </c>
       <c r="G119" t="n">
-        <v>-1088524.346456198</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J119" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4514,26 +4137,15 @@
         <v>51529.5736</v>
       </c>
       <c r="G120" t="n">
-        <v>-1088524.346456198</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J120" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4555,26 +4167,15 @@
         <v>251</v>
       </c>
       <c r="G121" t="n">
-        <v>-1088524.346456198</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J121" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4596,26 +4197,15 @@
         <v>134655.8405</v>
       </c>
       <c r="G122" t="n">
-        <v>-953868.5059561983</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J122" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4637,26 +4227,15 @@
         <v>23552.4</v>
       </c>
       <c r="G123" t="n">
-        <v>-977420.9059561983</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J123" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4678,26 +4257,15 @@
         <v>17.12</v>
       </c>
       <c r="G124" t="n">
-        <v>-977420.9059561983</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J124" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4719,26 +4287,15 @@
         <v>7500</v>
       </c>
       <c r="G125" t="n">
-        <v>-969920.9059561983</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J125" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4760,26 +4317,15 @@
         <v>78468.2285</v>
       </c>
       <c r="G126" t="n">
-        <v>-969920.9059561983</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J126" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4801,24 +4347,15 @@
         <v>124300</v>
       </c>
       <c r="G127" t="n">
-        <v>-969920.9059561983</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4840,24 +4377,15 @@
         <v>50000</v>
       </c>
       <c r="G128" t="n">
-        <v>-969920.9059561983</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4879,24 +4407,15 @@
         <v>159264.5615</v>
       </c>
       <c r="G129" t="n">
-        <v>-969920.9059561983</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4918,24 +4437,15 @@
         <v>14649.2097</v>
       </c>
       <c r="G130" t="n">
-        <v>-984570.1156561984</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4957,26 +4467,15 @@
         <v>13688</v>
       </c>
       <c r="G131" t="n">
-        <v>-984570.1156561984</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J131" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4998,26 +4497,15 @@
         <v>173934.6556</v>
       </c>
       <c r="G132" t="n">
-        <v>-810635.4600561983</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J132" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5039,24 +4527,15 @@
         <v>107.6468</v>
       </c>
       <c r="G133" t="n">
-        <v>-810743.1068561983</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5078,26 +4557,15 @@
         <v>21.04</v>
       </c>
       <c r="G134" t="n">
-        <v>-810722.0668561982</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J134" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5119,26 +4587,15 @@
         <v>9975</v>
       </c>
       <c r="G135" t="n">
-        <v>-820697.0668561982</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J135" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5160,26 +4617,15 @@
         <v>127428</v>
       </c>
       <c r="G136" t="n">
-        <v>-693269.0668561982</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J136" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5201,24 +4647,15 @@
         <v>20000</v>
       </c>
       <c r="G137" t="n">
-        <v>-693269.0668561982</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5240,24 +4677,15 @@
         <v>3402.7456</v>
       </c>
       <c r="G138" t="n">
-        <v>-696671.8124561983</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5279,26 +4707,15 @@
         <v>22859.84</v>
       </c>
       <c r="G139" t="n">
-        <v>-673811.9724561983</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J139" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5320,24 +4737,15 @@
         <v>39999.9999</v>
       </c>
       <c r="G140" t="n">
-        <v>-673811.9724561983</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5359,24 +4767,15 @@
         <v>48895</v>
       </c>
       <c r="G141" t="n">
-        <v>-673811.9724561983</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5398,24 +4797,15 @@
         <v>322.5807</v>
       </c>
       <c r="G142" t="n">
-        <v>-673811.9724561983</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5437,24 +4827,15 @@
         <v>168350.8906</v>
       </c>
       <c r="G143" t="n">
-        <v>-842162.8630561983</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5476,26 +4857,15 @@
         <v>46180</v>
       </c>
       <c r="G144" t="n">
-        <v>-842162.8630561983</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J144" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5517,26 +4887,15 @@
         <v>52655.6329</v>
       </c>
       <c r="G145" t="n">
-        <v>-789507.2301561984</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J145" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5558,26 +4917,15 @@
         <v>6429.8736</v>
       </c>
       <c r="G146" t="n">
-        <v>-789507.2301561984</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J146" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5599,26 +4947,15 @@
         <v>4660</v>
       </c>
       <c r="G147" t="n">
-        <v>-789507.2301561984</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J147" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5640,26 +4977,15 @@
         <v>2500</v>
       </c>
       <c r="G148" t="n">
-        <v>-792007.2301561984</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J148" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5681,26 +5007,15 @@
         <v>23000</v>
       </c>
       <c r="G149" t="n">
-        <v>-792007.2301561984</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J149" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5722,26 +5037,15 @@
         <v>139705.3184</v>
       </c>
       <c r="G150" t="n">
-        <v>-792007.2301561984</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J150" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5763,26 +5067,15 @@
         <v>24.9574</v>
       </c>
       <c r="G151" t="n">
-        <v>-792007.2301561984</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J151" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5804,26 +5097,15 @@
         <v>18426.0529</v>
       </c>
       <c r="G152" t="n">
-        <v>-792007.2301561984</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J152" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5845,26 +5127,15 @@
         <v>106160.4454</v>
       </c>
       <c r="G153" t="n">
-        <v>-792007.2301561984</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J153" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5886,26 +5157,15 @@
         <v>5225.3251</v>
       </c>
       <c r="G154" t="n">
-        <v>-792007.2301561984</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J154" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5927,26 +5187,15 @@
         <v>5792.2481</v>
       </c>
       <c r="G155" t="n">
-        <v>-792007.2301561984</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J155" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5968,26 +5217,15 @@
         <v>62500.2328</v>
       </c>
       <c r="G156" t="n">
-        <v>-792007.2301561984</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J156" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6009,26 +5247,15 @@
         <v>46873.6913</v>
       </c>
       <c r="G157" t="n">
-        <v>-838880.9214561983</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J157" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6050,26 +5277,15 @@
         <v>17370</v>
       </c>
       <c r="G158" t="n">
-        <v>-838880.9214561983</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J158" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6091,26 +5307,15 @@
         <v>17370</v>
       </c>
       <c r="G159" t="n">
-        <v>-838880.9214561983</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J159" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6132,26 +5337,15 @@
         <v>17370</v>
       </c>
       <c r="G160" t="n">
-        <v>-838880.9214561983</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J160" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6173,26 +5367,15 @@
         <v>47760</v>
       </c>
       <c r="G161" t="n">
-        <v>-838880.9214561983</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J161" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6214,26 +5397,15 @@
         <v>13020</v>
       </c>
       <c r="G162" t="n">
-        <v>-838880.9214561983</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J162" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6255,26 +5427,15 @@
         <v>4350</v>
       </c>
       <c r="G163" t="n">
-        <v>-838880.9214561983</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J163" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6296,26 +5457,15 @@
         <v>4350</v>
       </c>
       <c r="G164" t="n">
-        <v>-838880.9214561983</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J164" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6337,26 +5487,15 @@
         <v>365717.7805</v>
       </c>
       <c r="G165" t="n">
-        <v>-838880.9214561983</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J165" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6378,26 +5517,15 @@
         <v>34320</v>
       </c>
       <c r="G166" t="n">
-        <v>-838880.9214561983</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J166" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6419,26 +5547,15 @@
         <v>17160</v>
       </c>
       <c r="G167" t="n">
-        <v>-838880.9214561983</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J167" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6460,26 +5577,15 @@
         <v>17160</v>
       </c>
       <c r="G168" t="n">
-        <v>-838880.9214561983</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J168" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
